--- a/806209426/localisation/excel/cara_ideas_l_german.xlsx
+++ b/806209426/localisation/excel/cara_ideas_l_german.xlsx
@@ -28,25 +28,25 @@
     <t xml:space="preserve"> inclusive_society:0</t>
   </si>
   <si>
-    <t xml:space="preserve">United society</t>
+    <t xml:space="preserve">Vereinte Gesellschaft</t>
   </si>
   <si>
     <t xml:space="preserve"> inclusive_society_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Together we are strong!</t>
+    <t xml:space="preserve">Gemeinsam sind wir stark!</t>
   </si>
   <si>
     <t xml:space="preserve"> exclusive_society:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Divided society</t>
+    <t xml:space="preserve">Geteilte Gesellschaft</t>
   </si>
   <si>
     <t xml:space="preserve"> exclusive_society_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Not every German is a German!</t>
+    <t xml:space="preserve">Nicht jeder Deutsche ist ein Deutscher!</t>
   </si>
   <si>
     <t xml:space="preserve"> albert_einstein:0</t>
@@ -58,91 +58,91 @@
     <t xml:space="preserve"> albert_einstein_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Universal genius</t>
+    <t xml:space="preserve">Universalgenie</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_proud_prussians:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Prussian heritage</t>
+    <t xml:space="preserve">Preußisches Erbe</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_proud_prussians_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Youre the descendant of a long line of soliders. Join the military and make us proud son!</t>
+    <t xml:space="preserve">Du bist der Nachkomme einer langen Reihe von Soldaten. Geh zum Militär und mach uns stolz, mein Sohn!</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_homework:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Homeland service</t>
+    <t xml:space="preserve">Dienst am Vaterland</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_homework_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Work together to become one.</t>
+    <t xml:space="preserve">Arbeite zusammen, um eins zu werden.</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_homework_2:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Expanded Homeland service</t>
+    <t xml:space="preserve">Erweiterter Heimatdienst</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_homework_2_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The people of other countries will also work for the glory of the Reich!</t>
+    <t xml:space="preserve">Auch die Menschen anderer Länder werden für den Ruhm des Reiches arbeiten!</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_reduced_population:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Reduced population</t>
+    <t xml:space="preserve">Reduzierte Bevölkerung</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_reduced_population_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">More people in labor camps, less people in the army.</t>
+    <t xml:space="preserve">Mehr Menschen in Arbeitslagern, weniger Menschen in der Armee.</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_increased_population:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Population increase</t>
+    <t xml:space="preserve">Zunahme der Bevölkerung</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_increased_population_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The returnees cant wait to join the glorious army of their motherland!</t>
+    <t xml:space="preserve">Die Heimkehrer können es kaum erwarten, sich der glorreichen Armee ihres Vaterlandes anzuschließen!</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_battle_fleet_flag:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Flagship-Focus</t>
+    <t xml:space="preserve">Flaggschiff-Schwerpunkt</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_battle_fleet_flag_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We want more flagships!</t>
+    <t xml:space="preserve">Wir wollen mehr Flaggschiffe!</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_battle_fleet_carry:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Carrier-Focus</t>
+    <t xml:space="preserve">Flugzeugträger-Fokus</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_battle_fleet_carry_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We want more Carriers!</t>
+    <t xml:space="preserve">Wir wollen mehr Flugzeugträger!</t>
   </si>
   <si>
     <t xml:space="preserve"> walther:0</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve"> walther_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Pistol and riflecompany.</t>
+    <t xml:space="preserve">Pistolen- und Gewehr-Firma.</t>
   </si>
   <si>
     <t xml:space="preserve"> bayern_cars:0</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve"> bayern_cars_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Construction machines</t>
+    <t xml:space="preserve">Baumaschinen</t>
   </si>
   <si>
     <t xml:space="preserve"> autarchy:0</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve"> autarchy_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We have to improve our resource waste management to achieve the best results!</t>
+    <t xml:space="preserve">Wir müssen unser Ressourcenmanagement verbessern, um die besten Ergebnisse zu erzielen!</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_hitleryouth:0</t>
@@ -190,25 +190,25 @@
     <t xml:space="preserve"> idea_hitleryouth_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A new generation of hardened warriors will carry the torch</t>
+    <t xml:space="preserve">Eine neue Generation hartgesottener Krieger wird die Fackel weiter tragen</t>
   </si>
   <si>
     <t xml:space="preserve"> secured_supply:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Secured supply</t>
+    <t xml:space="preserve">Gesicherte Versorgung</t>
   </si>
   <si>
     <t xml:space="preserve"> secured_supply_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Safe supply for the industry expedits the production.</t>
+    <t xml:space="preserve">Eine sichere Versorgung der Industrie beschleunigt die Produktion.</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_army_reformation_infantry_1:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Reformed infantry</t>
+    <t xml:space="preserve">Reformierte Infanterie</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_army_reformation_infantry_1_desc:0</t>
@@ -220,7 +220,7 @@
     <t xml:space="preserve"> idea_army_reformation_support_1:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Reformed Support</t>
+    <t xml:space="preserve">Reformierte Unterstützung</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_army_reformation_support_1_desc:0</t>
@@ -232,7 +232,7 @@
     <t xml:space="preserve"> idea_army_reformation_tanks_1:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Reformed Tanks</t>
+    <t xml:space="preserve">Reformierte Panzer</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_army_reformation_tanks_1_desc:0</t>
@@ -241,7 +241,7 @@
     <t xml:space="preserve"> idea_army_reformation_motorized_1:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Reformed motorization</t>
+    <t xml:space="preserve">Reformierte Motorisierung</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_army_reformation_motorized_1_desc:0</t>
@@ -250,7 +250,7 @@
     <t xml:space="preserve"> idea_army_reformation_mechanized_1:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Reformed mechanization</t>
+    <t xml:space="preserve">Reformierte Mechanisierung</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_army_reformation_mechanized_1_desc:0</t>
@@ -259,7 +259,7 @@
     <t xml:space="preserve"> idea_army_reformation_artillery_1:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Reformed artillery</t>
+    <t xml:space="preserve">Reformierte Artillerie</t>
   </si>
   <si>
     <t xml:space="preserve"> idea_army_reformation_artillery_1_desc:0</t>
@@ -268,13 +268,13 @@
     <t xml:space="preserve"> arado_flugzeugwerke:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Arcado Airplanes</t>
+    <t xml:space="preserve">Arcado-Flugzeuge</t>
   </si>
   <si>
     <t xml:space="preserve"> arado_flugzeugwerke_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Best fighters you can buy for your money</t>
+    <t xml:space="preserve">Die besten Flugzeuge, die man für sein Geld kaufen kann</t>
   </si>
   <si>
     <t xml:space="preserve"> daimler_benz:0</t>
@@ -286,31 +286,31 @@
     <t xml:space="preserve"> daimler_benz_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Strong and reliable motors</t>
+    <t xml:space="preserve">Starke und zuverlässige Motoren</t>
   </si>
   <si>
     <t xml:space="preserve"> sparprogramme:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Austerity program</t>
+    <t xml:space="preserve">Sparprogramm</t>
   </si>
   <si>
     <t xml:space="preserve"> sparprogramme_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Savings in the civil part of the society enable more capacities for war preperation. </t>
+    <t xml:space="preserve">Einsparungen im zivilen Bereich der Gesellschaft ermöglichen mehr Kapazitäten für die Kriegsvorbereitung. </t>
   </si>
   <si>
     <t xml:space="preserve"> German_Suppression:0</t>
   </si>
   <si>
-    <t xml:space="preserve">German Suppression</t>
+    <t xml:space="preserve">Deutsche Unterdrückung</t>
   </si>
   <si>
     <t xml:space="preserve"> German_Suppression_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">We need to fight any resistance!</t>
+    <t xml:space="preserve">Wir müssen jeden Widerstand bekämpfen!</t>
   </si>
   <si>
     <t xml:space="preserve"> hitleryouth:0</t>
@@ -536,8 +536,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D1:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -563,7 +563,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="1" t="str">
         <f aca="false">A2 &amp;" " &amp;"""" &amp;B2 &amp;""""</f>
-        <v>""</v>
+        <v> ""</v>
       </c>
       <c r="D2" s="1" t="str">
         <f aca="false">IF(ISBLANK(A2),"",C2)</f>
@@ -579,11 +579,11 @@
       </c>
       <c r="C3" s="1" t="str">
         <f aca="false">A3 &amp;" " &amp;"""" &amp;B3 &amp;""""</f>
-        <v> inclusive_society:0 "United society"</v>
+        <v> inclusive_society:0 "Vereinte Gesellschaft"</v>
       </c>
       <c r="D3" s="1" t="str">
         <f aca="false">IF(ISBLANK(A3),"",C3)</f>
-        <v> inclusive_society:0 "United society"</v>
+        <v> inclusive_society:0 "Vereinte Gesellschaft"</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,11 +595,11 @@
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">A4 &amp;" " &amp;"""" &amp;B4 &amp;""""</f>
-        <v> inclusive_society_desc:0 "Together we are strong!"</v>
+        <v> inclusive_society_desc:0 "Gemeinsam sind wir stark!"</v>
       </c>
       <c r="D4" s="1" t="str">
         <f aca="false">IF(ISBLANK(A4),"",C4)</f>
-        <v> inclusive_society_desc:0 "Together we are strong!"</v>
+        <v> inclusive_society_desc:0 "Gemeinsam sind wir stark!"</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,11 +611,11 @@
       </c>
       <c r="C5" s="1" t="str">
         <f aca="false">A5 &amp;" " &amp;"""" &amp;B5 &amp;""""</f>
-        <v> exclusive_society:0 "Divided society"</v>
+        <v> exclusive_society:0 "Geteilte Gesellschaft"</v>
       </c>
       <c r="D5" s="1" t="str">
         <f aca="false">IF(ISBLANK(A5),"",C5)</f>
-        <v> exclusive_society:0 "Divided society"</v>
+        <v> exclusive_society:0 "Geteilte Gesellschaft"</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,11 +627,11 @@
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">A6 &amp;" " &amp;"""" &amp;B6 &amp;""""</f>
-        <v> exclusive_society_desc:0 "Not every German is a German!"</v>
+        <v> exclusive_society_desc:0 "Nicht jeder Deutsche ist ein Deutscher!"</v>
       </c>
       <c r="D6" s="1" t="str">
         <f aca="false">IF(ISBLANK(A6),"",C6)</f>
-        <v> exclusive_society_desc:0 "Not every German is a German!"</v>
+        <v> exclusive_society_desc:0 "Nicht jeder Deutsche ist ein Deutscher!"</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,11 +659,11 @@
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">A8 &amp;" " &amp;"""" &amp;B8 &amp;""""</f>
-        <v> albert_einstein_desc:0 "Universal genius"</v>
+        <v> albert_einstein_desc:0 "Universalgenie"</v>
       </c>
       <c r="D8" s="1" t="str">
         <f aca="false">IF(ISBLANK(A8),"",C8)</f>
-        <v> albert_einstein_desc:0 "Universal genius"</v>
+        <v> albert_einstein_desc:0 "Universalgenie"</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,11 +675,11 @@
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">A9 &amp;" " &amp;"""" &amp;B9 &amp;""""</f>
-        <v> idea_proud_prussians:0 "Prussian heritage"</v>
+        <v> idea_proud_prussians:0 "Preußisches Erbe"</v>
       </c>
       <c r="D9" s="1" t="str">
         <f aca="false">IF(ISBLANK(A9),"",C9)</f>
-        <v> idea_proud_prussians:0 "Prussian heritage"</v>
+        <v> idea_proud_prussians:0 "Preußisches Erbe"</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,11 +691,11 @@
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">A10 &amp;" " &amp;"""" &amp;B10 &amp;""""</f>
-        <v> idea_proud_prussians_desc:0 "Youre the descendant of a long line of soliders. Join the military and make us proud son!"</v>
+        <v> idea_proud_prussians_desc:0 "Du bist der Nachkomme einer langen Reihe von Soldaten. Geh zum Militär und mach uns stolz, mein Sohn!"</v>
       </c>
       <c r="D10" s="1" t="str">
         <f aca="false">IF(ISBLANK(A10),"",C10)</f>
-        <v> idea_proud_prussians_desc:0 "Youre the descendant of a long line of soliders. Join the military and make us proud son!"</v>
+        <v> idea_proud_prussians_desc:0 "Du bist der Nachkomme einer langen Reihe von Soldaten. Geh zum Militär und mach uns stolz, mein Sohn!"</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -707,11 +707,11 @@
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">A11 &amp;" " &amp;"""" &amp;B11 &amp;""""</f>
-        <v> idea_homework:0 "Homeland service"</v>
+        <v> idea_homework:0 "Dienst am Vaterland"</v>
       </c>
       <c r="D11" s="1" t="str">
         <f aca="false">IF(ISBLANK(A11),"",C11)</f>
-        <v> idea_homework:0 "Homeland service"</v>
+        <v> idea_homework:0 "Dienst am Vaterland"</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,11 +723,11 @@
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">A12 &amp;" " &amp;"""" &amp;B12 &amp;""""</f>
-        <v> idea_homework_desc:0 "Work together to become one."</v>
+        <v> idea_homework_desc:0 "Arbeite zusammen, um eins zu werden."</v>
       </c>
       <c r="D12" s="1" t="str">
         <f aca="false">IF(ISBLANK(A12),"",C12)</f>
-        <v> idea_homework_desc:0 "Work together to become one."</v>
+        <v> idea_homework_desc:0 "Arbeite zusammen, um eins zu werden."</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,11 +739,11 @@
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">A13 &amp;" " &amp;"""" &amp;B13 &amp;""""</f>
-        <v> idea_homework_2:0 "Expanded Homeland service"</v>
+        <v> idea_homework_2:0 "Erweiterter Heimatdienst"</v>
       </c>
       <c r="D13" s="1" t="str">
         <f aca="false">IF(ISBLANK(A13),"",C13)</f>
-        <v> idea_homework_2:0 "Expanded Homeland service"</v>
+        <v> idea_homework_2:0 "Erweiterter Heimatdienst"</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,11 +755,11 @@
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">A14 &amp;" " &amp;"""" &amp;B14 &amp;""""</f>
-        <v> idea_homework_2_desc:0 "The people of other countries will also work for the glory of the Reich!"</v>
+        <v> idea_homework_2_desc:0 "Auch die Menschen anderer Länder werden für den Ruhm des Reiches arbeiten!"</v>
       </c>
       <c r="D14" s="1" t="str">
         <f aca="false">IF(ISBLANK(A14),"",C14)</f>
-        <v> idea_homework_2_desc:0 "The people of other countries will also work for the glory of the Reich!"</v>
+        <v> idea_homework_2_desc:0 "Auch die Menschen anderer Länder werden für den Ruhm des Reiches arbeiten!"</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,11 +771,11 @@
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">A15 &amp;" " &amp;"""" &amp;B15 &amp;""""</f>
-        <v> idea_reduced_population:0 "Reduced population"</v>
+        <v> idea_reduced_population:0 "Reduzierte Bevölkerung"</v>
       </c>
       <c r="D15" s="1" t="str">
         <f aca="false">IF(ISBLANK(A15),"",C15)</f>
-        <v> idea_reduced_population:0 "Reduced population"</v>
+        <v> idea_reduced_population:0 "Reduzierte Bevölkerung"</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,11 +787,11 @@
       </c>
       <c r="C16" s="1" t="str">
         <f aca="false">A16 &amp;" " &amp;"""" &amp;B16 &amp;""""</f>
-        <v> idea_reduced_population_desc:0 "More people in labor camps, less people in the army."</v>
+        <v> idea_reduced_population_desc:0 "Mehr Menschen in Arbeitslagern, weniger Menschen in der Armee."</v>
       </c>
       <c r="D16" s="1" t="str">
         <f aca="false">IF(ISBLANK(A16),"",C16)</f>
-        <v> idea_reduced_population_desc:0 "More people in labor camps, less people in the army."</v>
+        <v> idea_reduced_population_desc:0 "Mehr Menschen in Arbeitslagern, weniger Menschen in der Armee."</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -803,11 +803,11 @@
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">A17 &amp;" " &amp;"""" &amp;B17 &amp;""""</f>
-        <v> idea_increased_population:0 "Population increase"</v>
+        <v> idea_increased_population:0 "Zunahme der Bevölkerung"</v>
       </c>
       <c r="D17" s="1" t="str">
         <f aca="false">IF(ISBLANK(A17),"",C17)</f>
-        <v> idea_increased_population:0 "Population increase"</v>
+        <v> idea_increased_population:0 "Zunahme der Bevölkerung"</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,11 +819,11 @@
       </c>
       <c r="C18" s="1" t="str">
         <f aca="false">A18 &amp;" " &amp;"""" &amp;B18 &amp;""""</f>
-        <v> idea_increased_population_desc:0 "The returnees cant wait to join the glorious army of their motherland!"</v>
+        <v> idea_increased_population_desc:0 "Die Heimkehrer können es kaum erwarten, sich der glorreichen Armee ihres Vaterlandes anzuschließen!"</v>
       </c>
       <c r="D18" s="1" t="str">
         <f aca="false">IF(ISBLANK(A18),"",C18)</f>
-        <v> idea_increased_population_desc:0 "The returnees cant wait to join the glorious army of their motherland!"</v>
+        <v> idea_increased_population_desc:0 "Die Heimkehrer können es kaum erwarten, sich der glorreichen Armee ihres Vaterlandes anzuschließen!"</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,11 +835,11 @@
       </c>
       <c r="C19" s="1" t="str">
         <f aca="false">A19 &amp;" " &amp;"""" &amp;B19 &amp;""""</f>
-        <v> idea_battle_fleet_flag:0 "Flagship-Focus"</v>
+        <v> idea_battle_fleet_flag:0 "Flaggschiff-Schwerpunkt"</v>
       </c>
       <c r="D19" s="1" t="str">
         <f aca="false">IF(ISBLANK(A19),"",C19)</f>
-        <v> idea_battle_fleet_flag:0 "Flagship-Focus"</v>
+        <v> idea_battle_fleet_flag:0 "Flaggschiff-Schwerpunkt"</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,11 +851,11 @@
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">A20 &amp;" " &amp;"""" &amp;B20 &amp;""""</f>
-        <v> idea_battle_fleet_flag_desc:0 "We want more flagships!"</v>
+        <v> idea_battle_fleet_flag_desc:0 "Wir wollen mehr Flaggschiffe!"</v>
       </c>
       <c r="D20" s="1" t="str">
         <f aca="false">IF(ISBLANK(A20),"",C20)</f>
-        <v> idea_battle_fleet_flag_desc:0 "We want more flagships!"</v>
+        <v> idea_battle_fleet_flag_desc:0 "Wir wollen mehr Flaggschiffe!"</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -867,11 +867,11 @@
       </c>
       <c r="C21" s="1" t="str">
         <f aca="false">A21 &amp;" " &amp;"""" &amp;B21 &amp;""""</f>
-        <v> idea_battle_fleet_carry:0 "Carrier-Focus"</v>
+        <v> idea_battle_fleet_carry:0 "Flugzeugträger-Fokus"</v>
       </c>
       <c r="D21" s="1" t="str">
         <f aca="false">IF(ISBLANK(A21),"",C21)</f>
-        <v> idea_battle_fleet_carry:0 "Carrier-Focus"</v>
+        <v> idea_battle_fleet_carry:0 "Flugzeugträger-Fokus"</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,11 +883,11 @@
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">A22 &amp;" " &amp;"""" &amp;B22 &amp;""""</f>
-        <v> idea_battle_fleet_carry_desc:0 "We want more Carriers!"</v>
+        <v> idea_battle_fleet_carry_desc:0 "Wir wollen mehr Flugzeugträger!"</v>
       </c>
       <c r="D22" s="1" t="str">
         <f aca="false">IF(ISBLANK(A22),"",C22)</f>
-        <v> idea_battle_fleet_carry_desc:0 "We want more Carriers!"</v>
+        <v> idea_battle_fleet_carry_desc:0 "Wir wollen mehr Flugzeugträger!"</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,11 +915,11 @@
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">A24 &amp;" " &amp;"""" &amp;B24 &amp;""""</f>
-        <v> walther_desc:0 "Pistol and riflecompany."</v>
+        <v> walther_desc:0 "Pistolen- und Gewehr-Firma."</v>
       </c>
       <c r="D24" s="1" t="str">
         <f aca="false">IF(ISBLANK(A24),"",C24)</f>
-        <v> walther_desc:0 "Pistol and riflecompany."</v>
+        <v> walther_desc:0 "Pistolen- und Gewehr-Firma."</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,11 +947,11 @@
       </c>
       <c r="C26" s="1" t="str">
         <f aca="false">A26 &amp;" " &amp;"""" &amp;B26 &amp;""""</f>
-        <v> bayern_cars_desc:0 "Construction machines"</v>
+        <v> bayern_cars_desc:0 "Baumaschinen"</v>
       </c>
       <c r="D26" s="1" t="str">
         <f aca="false">IF(ISBLANK(A26),"",C26)</f>
-        <v> bayern_cars_desc:0 "Construction machines"</v>
+        <v> bayern_cars_desc:0 "Baumaschinen"</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,11 +979,11 @@
       </c>
       <c r="C28" s="1" t="str">
         <f aca="false">A28 &amp;" " &amp;"""" &amp;B28 &amp;""""</f>
-        <v> autarchy_desc:0 "We have to improve our resource waste management to achieve the best results!"</v>
+        <v> autarchy_desc:0 "Wir müssen unser Ressourcenmanagement verbessern, um die besten Ergebnisse zu erzielen!"</v>
       </c>
       <c r="D28" s="1" t="str">
         <f aca="false">IF(ISBLANK(A28),"",C28)</f>
-        <v> autarchy_desc:0 "We have to improve our resource waste management to achieve the best results!"</v>
+        <v> autarchy_desc:0 "Wir müssen unser Ressourcenmanagement verbessern, um die besten Ergebnisse zu erzielen!"</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,11 +1011,11 @@
       </c>
       <c r="C30" s="1" t="str">
         <f aca="false">A30 &amp;" " &amp;"""" &amp;B30 &amp;""""</f>
-        <v> idea_hitleryouth_desc:0 "A new generation of hardened warriors will carry the torch"</v>
+        <v> idea_hitleryouth_desc:0 "Eine neue Generation hartgesottener Krieger wird die Fackel weiter tragen"</v>
       </c>
       <c r="D30" s="1" t="str">
         <f aca="false">IF(ISBLANK(A30),"",C30)</f>
-        <v> idea_hitleryouth_desc:0 "A new generation of hardened warriors will carry the torch"</v>
+        <v> idea_hitleryouth_desc:0 "Eine neue Generation hartgesottener Krieger wird die Fackel weiter tragen"</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,11 +1027,11 @@
       </c>
       <c r="C31" s="1" t="str">
         <f aca="false">A31 &amp;" " &amp;"""" &amp;B31 &amp;""""</f>
-        <v> secured_supply:0 "Secured supply"</v>
+        <v> secured_supply:0 "Gesicherte Versorgung"</v>
       </c>
       <c r="D31" s="1" t="str">
         <f aca="false">IF(ISBLANK(A31),"",C31)</f>
-        <v> secured_supply:0 "Secured supply"</v>
+        <v> secured_supply:0 "Gesicherte Versorgung"</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,11 +1043,11 @@
       </c>
       <c r="C32" s="1" t="str">
         <f aca="false">A32 &amp;" " &amp;"""" &amp;B32 &amp;""""</f>
-        <v> secured_supply_desc:0 "Safe supply for the industry expedits the production."</v>
+        <v> secured_supply_desc:0 "Eine sichere Versorgung der Industrie beschleunigt die Produktion."</v>
       </c>
       <c r="D32" s="1" t="str">
         <f aca="false">IF(ISBLANK(A32),"",C32)</f>
-        <v> secured_supply_desc:0 "Safe supply for the industry expedits the production."</v>
+        <v> secured_supply_desc:0 "Eine sichere Versorgung der Industrie beschleunigt die Produktion."</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,11 +1059,11 @@
       </c>
       <c r="C33" s="1" t="str">
         <f aca="false">A33 &amp;" " &amp;"""" &amp;B33 &amp;""""</f>
-        <v> idea_army_reformation_infantry_1:0 "Reformed infantry"</v>
+        <v> idea_army_reformation_infantry_1:0 "Reformierte Infanterie"</v>
       </c>
       <c r="D33" s="1" t="str">
         <f aca="false">IF(ISBLANK(A33),"",C33)</f>
-        <v> idea_army_reformation_infantry_1:0 "Reformed infantry"</v>
+        <v> idea_army_reformation_infantry_1:0 "Reformierte Infanterie"</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,11 +1091,11 @@
       </c>
       <c r="C35" s="1" t="str">
         <f aca="false">A35 &amp;" " &amp;"""" &amp;B35 &amp;""""</f>
-        <v> idea_army_reformation_support_1:0 "Reformed Support"</v>
+        <v> idea_army_reformation_support_1:0 "Reformierte Unterstützung"</v>
       </c>
       <c r="D35" s="1" t="str">
         <f aca="false">IF(ISBLANK(A35),"",C35)</f>
-        <v> idea_army_reformation_support_1:0 "Reformed Support"</v>
+        <v> idea_army_reformation_support_1:0 "Reformierte Unterstützung"</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,11 +1123,11 @@
       </c>
       <c r="C37" s="1" t="str">
         <f aca="false">A37 &amp;" " &amp;"""" &amp;B37 &amp;""""</f>
-        <v> idea_army_reformation_tanks_1:0 "Reformed Tanks"</v>
+        <v> idea_army_reformation_tanks_1:0 "Reformierte Panzer"</v>
       </c>
       <c r="D37" s="1" t="str">
         <f aca="false">IF(ISBLANK(A37),"",C37)</f>
-        <v> idea_army_reformation_tanks_1:0 "Reformed Tanks"</v>
+        <v> idea_army_reformation_tanks_1:0 "Reformierte Panzer"</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,11 +1155,11 @@
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">A39 &amp;" " &amp;"""" &amp;B39 &amp;""""</f>
-        <v> idea_army_reformation_motorized_1:0 "Reformed motorization"</v>
+        <v> idea_army_reformation_motorized_1:0 "Reformierte Motorisierung"</v>
       </c>
       <c r="D39" s="1" t="str">
         <f aca="false">IF(ISBLANK(A39),"",C39)</f>
-        <v> idea_army_reformation_motorized_1:0 "Reformed motorization"</v>
+        <v> idea_army_reformation_motorized_1:0 "Reformierte Motorisierung"</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,11 +1187,11 @@
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">A41 &amp;" " &amp;"""" &amp;B41 &amp;""""</f>
-        <v> idea_army_reformation_mechanized_1:0 "Reformed mechanization"</v>
+        <v> idea_army_reformation_mechanized_1:0 "Reformierte Mechanisierung"</v>
       </c>
       <c r="D41" s="1" t="str">
         <f aca="false">IF(ISBLANK(A41),"",C41)</f>
-        <v> idea_army_reformation_mechanized_1:0 "Reformed mechanization"</v>
+        <v> idea_army_reformation_mechanized_1:0 "Reformierte Mechanisierung"</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,11 +1219,11 @@
       </c>
       <c r="C43" s="1" t="str">
         <f aca="false">A43 &amp;" " &amp;"""" &amp;B43 &amp;""""</f>
-        <v> idea_army_reformation_artillery_1:0 "Reformed artillery"</v>
+        <v> idea_army_reformation_artillery_1:0 "Reformierte Artillerie"</v>
       </c>
       <c r="D43" s="1" t="str">
         <f aca="false">IF(ISBLANK(A43),"",C43)</f>
-        <v> idea_army_reformation_artillery_1:0 "Reformed artillery"</v>
+        <v> idea_army_reformation_artillery_1:0 "Reformierte Artillerie"</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,11 +1251,11 @@
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">A45 &amp;" " &amp;"""" &amp;B45 &amp;""""</f>
-        <v> arado_flugzeugwerke:0 "Arcado Airplanes"</v>
+        <v> arado_flugzeugwerke:0 "Arcado-Flugzeuge"</v>
       </c>
       <c r="D45" s="1" t="str">
         <f aca="false">IF(ISBLANK(A45),"",C45)</f>
-        <v> arado_flugzeugwerke:0 "Arcado Airplanes"</v>
+        <v> arado_flugzeugwerke:0 "Arcado-Flugzeuge"</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,11 +1267,11 @@
       </c>
       <c r="C46" s="1" t="str">
         <f aca="false">A46 &amp;" " &amp;"""" &amp;B46 &amp;""""</f>
-        <v> arado_flugzeugwerke_desc:0 "Best fighters you can buy for your money"</v>
+        <v> arado_flugzeugwerke_desc:0 "Die besten Flugzeuge, die man für sein Geld kaufen kann"</v>
       </c>
       <c r="D46" s="1" t="str">
         <f aca="false">IF(ISBLANK(A46),"",C46)</f>
-        <v> arado_flugzeugwerke_desc:0 "Best fighters you can buy for your money"</v>
+        <v> arado_flugzeugwerke_desc:0 "Die besten Flugzeuge, die man für sein Geld kaufen kann"</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,11 +1299,11 @@
       </c>
       <c r="C48" s="1" t="str">
         <f aca="false">A48 &amp;" " &amp;"""" &amp;B48 &amp;""""</f>
-        <v> daimler_benz_desc:0 "Strong and reliable motors"</v>
+        <v> daimler_benz_desc:0 "Starke und zuverlässige Motoren"</v>
       </c>
       <c r="D48" s="1" t="str">
         <f aca="false">IF(ISBLANK(A48),"",C48)</f>
-        <v> daimler_benz_desc:0 "Strong and reliable motors"</v>
+        <v> daimler_benz_desc:0 "Starke und zuverlässige Motoren"</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,11 +1315,11 @@
       </c>
       <c r="C49" s="1" t="str">
         <f aca="false">A49 &amp;" " &amp;"""" &amp;B49 &amp;""""</f>
-        <v> sparprogramme:0 "Austerity program"</v>
+        <v> sparprogramme:0 "Sparprogramm"</v>
       </c>
       <c r="D49" s="1" t="str">
         <f aca="false">IF(ISBLANK(A49),"",C49)</f>
-        <v> sparprogramme:0 "Austerity program"</v>
+        <v> sparprogramme:0 "Sparprogramm"</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,11 +1331,11 @@
       </c>
       <c r="C50" s="1" t="str">
         <f aca="false">A50 &amp;" " &amp;"""" &amp;B50 &amp;""""</f>
-        <v> sparprogramme_desc:0 "Savings in the civil part of the society enable more capacities for war preperation. "</v>
+        <v> sparprogramme_desc:0 "Einsparungen im zivilen Bereich der Gesellschaft ermöglichen mehr Kapazitäten für die Kriegsvorbereitung. "</v>
       </c>
       <c r="D50" s="1" t="str">
         <f aca="false">IF(ISBLANK(A50),"",C50)</f>
-        <v> sparprogramme_desc:0 "Savings in the civil part of the society enable more capacities for war preperation. "</v>
+        <v> sparprogramme_desc:0 "Einsparungen im zivilen Bereich der Gesellschaft ermöglichen mehr Kapazitäten für die Kriegsvorbereitung. "</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1347,11 +1347,11 @@
       </c>
       <c r="C51" s="1" t="str">
         <f aca="false">A51 &amp;" " &amp;"""" &amp;B51 &amp;""""</f>
-        <v> German_Suppression:0 "German Suppression"</v>
+        <v> German_Suppression:0 "Deutsche Unterdrückung"</v>
       </c>
       <c r="D51" s="1" t="str">
         <f aca="false">IF(ISBLANK(A51),"",C51)</f>
-        <v> German_Suppression:0 "German Suppression"</v>
+        <v> German_Suppression:0 "Deutsche Unterdrückung"</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,11 +1363,11 @@
       </c>
       <c r="C52" s="1" t="str">
         <f aca="false">A52 &amp;" " &amp;"""" &amp;B52 &amp;""""</f>
-        <v> German_Suppression_desc: "We need to fight any resistance!"</v>
+        <v> German_Suppression_desc: "Wir müssen jeden Widerstand bekämpfen!"</v>
       </c>
       <c r="D52" s="1" t="str">
         <f aca="false">IF(ISBLANK(A52),"",C52)</f>
-        <v> German_Suppression_desc: "We need to fight any resistance!"</v>
+        <v> German_Suppression_desc: "Wir müssen jeden Widerstand bekämpfen!"</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v> hitleryouth:0 "Austerity program"</v>
+        <v> hitleryouth:0 "Sparprogramm"</v>
       </c>
       <c r="D53" s="1" t="str">
         <f aca="false">IF(ISBLANK(A53),"",C53)</f>
-        <v> hitleryouth:0 "Austerity program"</v>
+        <v> hitleryouth:0 "Sparprogramm"</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,2268 +1395,1364 @@
       </c>
       <c r="C54" s="1" t="str">
         <f aca="false">A54 &amp;" " &amp;"""" &amp;B54 &amp;""""</f>
-        <v> hitleryouth_desc:0 "Savings in the civil part of the society enable more capacities for war preperation. "</v>
+        <v> hitleryouth_desc:0 "Einsparungen im zivilen Bereich der Gesellschaft ermöglichen mehr Kapazitäten für die Kriegsvorbereitung. "</v>
       </c>
       <c r="D54" s="1" t="str">
         <f aca="false">IF(ISBLANK(A54),"",C54)</f>
-        <v> hitleryouth_desc:0 "Savings in the civil part of the society enable more capacities for war preperation. "</v>
+        <v> hitleryouth_desc:0 "Einsparungen im zivilen Bereich der Gesellschaft ermöglichen mehr Kapazitäten für die Kriegsvorbereitung. "</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1" t="str">
-        <f aca="false">A55 &amp;" " &amp;"""" &amp;B55 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D55" s="1" t="str">
         <f aca="false">IF(ISBLANK(A55),"",C55)</f>
         <v/>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1" t="str">
-        <f aca="false">A56 &amp;" " &amp;"""" &amp;B56 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D56" s="1" t="str">
         <f aca="false">IF(ISBLANK(A56),"",C56)</f>
         <v/>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1" t="str">
-        <f aca="false">A57 &amp;" " &amp;"""" &amp;B57 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D57" s="1" t="str">
         <f aca="false">IF(ISBLANK(A57),"",C57)</f>
         <v/>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1" t="str">
-        <f aca="false">A58 &amp;" " &amp;"""" &amp;B58 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D58" s="1" t="str">
         <f aca="false">IF(ISBLANK(A58),"",C58)</f>
         <v/>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1" t="str">
-        <f aca="false">A59 &amp;" " &amp;"""" &amp;B59 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D59" s="1" t="str">
         <f aca="false">IF(ISBLANK(A59),"",C59)</f>
         <v/>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1" t="str">
-        <f aca="false">A60 &amp;" " &amp;"""" &amp;B60 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D60" s="1" t="str">
         <f aca="false">IF(ISBLANK(A60),"",C60)</f>
         <v/>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1" t="str">
-        <f aca="false">A61 &amp;" " &amp;"""" &amp;B61 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D61" s="1" t="str">
         <f aca="false">IF(ISBLANK(A61),"",C61)</f>
         <v/>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1" t="str">
-        <f aca="false">A62 &amp;" " &amp;"""" &amp;B62 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D62" s="1" t="str">
         <f aca="false">IF(ISBLANK(A62),"",C62)</f>
         <v/>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1" t="str">
-        <f aca="false">A63 &amp;" " &amp;"""" &amp;B63 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D63" s="1" t="str">
         <f aca="false">IF(ISBLANK(A63),"",C63)</f>
         <v/>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1" t="str">
-        <f aca="false">A64 &amp;" " &amp;"""" &amp;B64 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D64" s="1" t="str">
         <f aca="false">IF(ISBLANK(A64),"",C64)</f>
         <v/>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1" t="str">
-        <f aca="false">A65 &amp;" " &amp;"""" &amp;B65 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D65" s="1" t="str">
         <f aca="false">IF(ISBLANK(A65),"",C65)</f>
         <v/>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1" t="str">
-        <f aca="false">A66 &amp;" " &amp;"""" &amp;B66 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D66" s="1" t="str">
         <f aca="false">IF(ISBLANK(A66),"",C66)</f>
         <v/>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1" t="str">
-        <f aca="false">A67 &amp;" " &amp;"""" &amp;B67 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D67" s="1" t="str">
         <f aca="false">IF(ISBLANK(A67),"",C67)</f>
         <v/>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1" t="str">
-        <f aca="false">A68 &amp;" " &amp;"""" &amp;B68 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D68" s="1" t="str">
         <f aca="false">IF(ISBLANK(A68),"",C68)</f>
         <v/>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1" t="str">
-        <f aca="false">A69 &amp;" " &amp;"""" &amp;B69 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D69" s="1" t="str">
         <f aca="false">IF(ISBLANK(A69),"",C69)</f>
         <v/>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1" t="str">
-        <f aca="false">A70 &amp;" " &amp;"""" &amp;B70 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D70" s="1" t="str">
         <f aca="false">IF(ISBLANK(A70),"",C70)</f>
         <v/>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="1" t="str">
-        <f aca="false">A71 &amp;" " &amp;"""" &amp;B71 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D71" s="1" t="str">
         <f aca="false">IF(ISBLANK(A71),"",C71)</f>
         <v/>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="1" t="str">
-        <f aca="false">A72 &amp;" " &amp;"""" &amp;B72 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D72" s="1" t="str">
         <f aca="false">IF(ISBLANK(A72),"",C72)</f>
         <v/>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="1" t="str">
-        <f aca="false">A73 &amp;" " &amp;"""" &amp;B73 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D73" s="1" t="str">
         <f aca="false">IF(ISBLANK(A73),"",C73)</f>
         <v/>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="1" t="str">
-        <f aca="false">A74 &amp;" " &amp;"""" &amp;B74 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D74" s="1" t="str">
         <f aca="false">IF(ISBLANK(A74),"",C74)</f>
         <v/>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="1" t="str">
-        <f aca="false">A75 &amp;" " &amp;"""" &amp;B75 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D75" s="1" t="str">
         <f aca="false">IF(ISBLANK(A75),"",C75)</f>
         <v/>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="1" t="str">
-        <f aca="false">A76 &amp;" " &amp;"""" &amp;B76 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D76" s="1" t="str">
         <f aca="false">IF(ISBLANK(A76),"",C76)</f>
         <v/>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="1" t="str">
-        <f aca="false">A77 &amp;" " &amp;"""" &amp;B77 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D77" s="1" t="str">
         <f aca="false">IF(ISBLANK(A77),"",C77)</f>
         <v/>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="1" t="str">
-        <f aca="false">A78 &amp;" " &amp;"""" &amp;B78 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D78" s="1" t="str">
         <f aca="false">IF(ISBLANK(A78),"",C78)</f>
         <v/>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="1" t="str">
-        <f aca="false">A79 &amp;" " &amp;"""" &amp;B79 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D79" s="1" t="str">
         <f aca="false">IF(ISBLANK(A79),"",C79)</f>
         <v/>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="1" t="str">
-        <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D80" s="1" t="str">
         <f aca="false">IF(ISBLANK(A80),"",C80)</f>
         <v/>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="1" t="str">
-        <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D81" s="1" t="str">
         <f aca="false">IF(ISBLANK(A81),"",C81)</f>
         <v/>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="1" t="str">
-        <f aca="false">A82 &amp;" " &amp;"""" &amp;B82 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D82" s="1" t="str">
         <f aca="false">IF(ISBLANK(A82),"",C82)</f>
         <v/>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="1" t="str">
-        <f aca="false">A83 &amp;" " &amp;"""" &amp;B83 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D83" s="1" t="str">
         <f aca="false">IF(ISBLANK(A83),"",C83)</f>
         <v/>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="1" t="str">
-        <f aca="false">A84 &amp;" " &amp;"""" &amp;B84 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D84" s="1" t="str">
         <f aca="false">IF(ISBLANK(A84),"",C84)</f>
         <v/>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="1" t="str">
-        <f aca="false">A85 &amp;" " &amp;"""" &amp;B85 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D85" s="1" t="str">
         <f aca="false">IF(ISBLANK(A85),"",C85)</f>
         <v/>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="1" t="str">
-        <f aca="false">A86 &amp;" " &amp;"""" &amp;B86 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D86" s="1" t="str">
         <f aca="false">IF(ISBLANK(A86),"",C86)</f>
         <v/>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="1" t="str">
-        <f aca="false">A87 &amp;" " &amp;"""" &amp;B87 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D87" s="1" t="str">
         <f aca="false">IF(ISBLANK(A87),"",C87)</f>
         <v/>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="1" t="str">
-        <f aca="false">A88 &amp;" " &amp;"""" &amp;B88 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D88" s="1" t="str">
         <f aca="false">IF(ISBLANK(A88),"",C88)</f>
         <v/>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="1" t="str">
-        <f aca="false">A89 &amp;" " &amp;"""" &amp;B89 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D89" s="1" t="str">
         <f aca="false">IF(ISBLANK(A89),"",C89)</f>
         <v/>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="1" t="str">
-        <f aca="false">A90 &amp;" " &amp;"""" &amp;B90 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D90" s="1" t="str">
         <f aca="false">IF(ISBLANK(A90),"",C90)</f>
         <v/>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="1" t="str">
-        <f aca="false">A91 &amp;" " &amp;"""" &amp;B91 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D91" s="1" t="str">
         <f aca="false">IF(ISBLANK(A91),"",C91)</f>
         <v/>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="1" t="str">
-        <f aca="false">A92 &amp;" " &amp;"""" &amp;B92 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D92" s="1" t="str">
         <f aca="false">IF(ISBLANK(A92),"",C92)</f>
         <v/>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="1" t="str">
-        <f aca="false">A93 &amp;" " &amp;"""" &amp;B93 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D93" s="1" t="str">
         <f aca="false">IF(ISBLANK(A93),"",C93)</f>
         <v/>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="1" t="str">
-        <f aca="false">A94 &amp;" " &amp;"""" &amp;B94 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D94" s="1" t="str">
         <f aca="false">IF(ISBLANK(A94),"",C94)</f>
         <v/>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="1" t="str">
-        <f aca="false">A95 &amp;" " &amp;"""" &amp;B95 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D95" s="1" t="str">
         <f aca="false">IF(ISBLANK(A95),"",C95)</f>
         <v/>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="1" t="str">
-        <f aca="false">A96 &amp;" " &amp;"""" &amp;B96 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D96" s="1" t="str">
         <f aca="false">IF(ISBLANK(A96),"",C96)</f>
         <v/>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="1" t="str">
-        <f aca="false">A97 &amp;" " &amp;"""" &amp;B97 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D97" s="1" t="str">
         <f aca="false">IF(ISBLANK(A97),"",C97)</f>
         <v/>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="1" t="str">
-        <f aca="false">A98 &amp;" " &amp;"""" &amp;B98 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D98" s="1" t="str">
         <f aca="false">IF(ISBLANK(A98),"",C98)</f>
         <v/>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="1" t="str">
-        <f aca="false">A99 &amp;" " &amp;"""" &amp;B99 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D99" s="1" t="str">
         <f aca="false">IF(ISBLANK(A99),"",C99)</f>
         <v/>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="1" t="str">
-        <f aca="false">A100 &amp;" " &amp;"""" &amp;B100 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D100" s="1" t="str">
         <f aca="false">IF(ISBLANK(A100),"",C100)</f>
         <v/>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="1" t="str">
-        <f aca="false">A101 &amp;" " &amp;"""" &amp;B101 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D101" s="1" t="str">
         <f aca="false">IF(ISBLANK(A101),"",C101)</f>
         <v/>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="1" t="str">
-        <f aca="false">A102 &amp;" " &amp;"""" &amp;B102 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D102" s="1" t="str">
         <f aca="false">IF(ISBLANK(A102),"",C102)</f>
         <v/>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="1" t="str">
-        <f aca="false">A103 &amp;" " &amp;"""" &amp;B103 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D103" s="1" t="str">
         <f aca="false">IF(ISBLANK(A103),"",C103)</f>
         <v/>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="1" t="str">
-        <f aca="false">A104 &amp;" " &amp;"""" &amp;B104 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D104" s="1" t="str">
         <f aca="false">IF(ISBLANK(A104),"",C104)</f>
         <v/>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="1" t="str">
-        <f aca="false">A105 &amp;" " &amp;"""" &amp;B105 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D105" s="1" t="str">
         <f aca="false">IF(ISBLANK(A105),"",C105)</f>
         <v/>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="1" t="str">
-        <f aca="false">A106 &amp;" " &amp;"""" &amp;B106 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D106" s="1" t="str">
         <f aca="false">IF(ISBLANK(A106),"",C106)</f>
         <v/>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="1" t="str">
-        <f aca="false">A107 &amp;" " &amp;"""" &amp;B107 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D107" s="1" t="str">
         <f aca="false">IF(ISBLANK(A107),"",C107)</f>
         <v/>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="1" t="str">
-        <f aca="false">A108 &amp;" " &amp;"""" &amp;B108 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D108" s="1" t="str">
         <f aca="false">IF(ISBLANK(A108),"",C108)</f>
         <v/>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="1" t="str">
-        <f aca="false">A109 &amp;" " &amp;"""" &amp;B109 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D109" s="1" t="str">
         <f aca="false">IF(ISBLANK(A109),"",C109)</f>
         <v/>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="1" t="str">
-        <f aca="false">A110 &amp;" " &amp;"""" &amp;B110 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D110" s="1" t="str">
         <f aca="false">IF(ISBLANK(A110),"",C110)</f>
         <v/>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="1" t="str">
-        <f aca="false">A111 &amp;" " &amp;"""" &amp;B111 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D111" s="1" t="str">
         <f aca="false">IF(ISBLANK(A111),"",C111)</f>
         <v/>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="1" t="str">
-        <f aca="false">A112 &amp;" " &amp;"""" &amp;B112 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D112" s="1" t="str">
         <f aca="false">IF(ISBLANK(A112),"",C112)</f>
         <v/>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="1" t="str">
-        <f aca="false">A113 &amp;" " &amp;"""" &amp;B113 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D113" s="1" t="str">
         <f aca="false">IF(ISBLANK(A113),"",C113)</f>
         <v/>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="1" t="str">
-        <f aca="false">A114 &amp;" " &amp;"""" &amp;B114 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D114" s="1" t="str">
         <f aca="false">IF(ISBLANK(A114),"",C114)</f>
         <v/>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="1" t="str">
-        <f aca="false">A115 &amp;" " &amp;"""" &amp;B115 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D115" s="1" t="str">
         <f aca="false">IF(ISBLANK(A115),"",C115)</f>
         <v/>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="1" t="str">
-        <f aca="false">A116 &amp;" " &amp;"""" &amp;B116 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D116" s="1" t="str">
         <f aca="false">IF(ISBLANK(A116),"",C116)</f>
         <v/>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="1" t="str">
-        <f aca="false">A117 &amp;" " &amp;"""" &amp;B117 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D117" s="1" t="str">
         <f aca="false">IF(ISBLANK(A117),"",C117)</f>
         <v/>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="1" t="str">
-        <f aca="false">A118 &amp;" " &amp;"""" &amp;B118 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D118" s="1" t="str">
         <f aca="false">IF(ISBLANK(A118),"",C118)</f>
         <v/>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="1" t="str">
-        <f aca="false">A119 &amp;" " &amp;"""" &amp;B119 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D119" s="1" t="str">
         <f aca="false">IF(ISBLANK(A119),"",C119)</f>
         <v/>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="1" t="str">
-        <f aca="false">A120 &amp;" " &amp;"""" &amp;B120 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D120" s="1" t="str">
         <f aca="false">IF(ISBLANK(A120),"",C120)</f>
         <v/>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="1" t="str">
-        <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D121" s="1" t="str">
         <f aca="false">IF(ISBLANK(A121),"",C121)</f>
         <v/>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="1" t="str">
-        <f aca="false">A122 &amp;" " &amp;"""" &amp;B122 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D122" s="1" t="str">
         <f aca="false">IF(ISBLANK(A122),"",C122)</f>
         <v/>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="1" t="str">
-        <f aca="false">A123 &amp;" " &amp;"""" &amp;B123 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D123" s="1" t="str">
         <f aca="false">IF(ISBLANK(A123),"",C123)</f>
         <v/>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="1" t="str">
-        <f aca="false">A124 &amp;" " &amp;"""" &amp;B124 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D124" s="1" t="str">
         <f aca="false">IF(ISBLANK(A124),"",C124)</f>
         <v/>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="1" t="str">
-        <f aca="false">A125 &amp;" " &amp;"""" &amp;B125 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D125" s="1" t="str">
         <f aca="false">IF(ISBLANK(A125),"",C125)</f>
         <v/>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="1" t="str">
-        <f aca="false">A126 &amp;" " &amp;"""" &amp;B126 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D126" s="1" t="str">
         <f aca="false">IF(ISBLANK(A126),"",C126)</f>
         <v/>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="1" t="str">
-        <f aca="false">A127 &amp;" " &amp;"""" &amp;B127 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D127" s="1" t="str">
         <f aca="false">IF(ISBLANK(A127),"",C127)</f>
         <v/>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="1" t="str">
-        <f aca="false">A128 &amp;" " &amp;"""" &amp;B128 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D128" s="1" t="str">
         <f aca="false">IF(ISBLANK(A128),"",C128)</f>
         <v/>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="1" t="str">
-        <f aca="false">A129 &amp;" " &amp;"""" &amp;B129 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D129" s="1" t="str">
         <f aca="false">IF(ISBLANK(A129),"",C129)</f>
         <v/>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="1" t="str">
-        <f aca="false">A130 &amp;" " &amp;"""" &amp;B130 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D130" s="1" t="str">
         <f aca="false">IF(ISBLANK(A130),"",C130)</f>
         <v/>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="1" t="str">
-        <f aca="false">A131 &amp;" " &amp;"""" &amp;B131 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D131" s="1" t="str">
         <f aca="false">IF(ISBLANK(A131),"",C131)</f>
         <v/>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="1" t="str">
-        <f aca="false">A132 &amp;" " &amp;"""" &amp;B132 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D132" s="1" t="str">
         <f aca="false">IF(ISBLANK(A132),"",C132)</f>
         <v/>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="1" t="str">
-        <f aca="false">A133 &amp;" " &amp;"""" &amp;B133 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D133" s="1" t="str">
         <f aca="false">IF(ISBLANK(A133),"",C133)</f>
         <v/>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="1" t="str">
-        <f aca="false">A134 &amp;" " &amp;"""" &amp;B134 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D134" s="1" t="str">
         <f aca="false">IF(ISBLANK(A134),"",C134)</f>
         <v/>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="1" t="str">
-        <f aca="false">A135 &amp;" " &amp;"""" &amp;B135 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D135" s="1" t="str">
         <f aca="false">IF(ISBLANK(A135),"",C135)</f>
         <v/>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="1" t="str">
-        <f aca="false">A136 &amp;" " &amp;"""" &amp;B136 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D136" s="1" t="str">
         <f aca="false">IF(ISBLANK(A136),"",C136)</f>
         <v/>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="1" t="str">
-        <f aca="false">A137 &amp;" " &amp;"""" &amp;B137 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D137" s="1" t="str">
         <f aca="false">IF(ISBLANK(A137),"",C137)</f>
         <v/>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="1" t="str">
-        <f aca="false">A138 &amp;" " &amp;"""" &amp;B138 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D138" s="1" t="str">
         <f aca="false">IF(ISBLANK(A138),"",C138)</f>
         <v/>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="1" t="str">
-        <f aca="false">A139 &amp;" " &amp;"""" &amp;B139 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D139" s="1" t="str">
         <f aca="false">IF(ISBLANK(A139),"",C139)</f>
         <v/>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="1" t="str">
-        <f aca="false">A140 &amp;" " &amp;"""" &amp;B140 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D140" s="1" t="str">
         <f aca="false">IF(ISBLANK(A140),"",C140)</f>
         <v/>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="1" t="str">
-        <f aca="false">A141 &amp;" " &amp;"""" &amp;B141 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D141" s="1" t="str">
         <f aca="false">IF(ISBLANK(A141),"",C141)</f>
         <v/>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="1" t="str">
-        <f aca="false">A142 &amp;" " &amp;"""" &amp;B142 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D142" s="1" t="str">
         <f aca="false">IF(ISBLANK(A142),"",C142)</f>
         <v/>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="1" t="str">
-        <f aca="false">A143 &amp;" " &amp;"""" &amp;B143 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D143" s="1" t="str">
         <f aca="false">IF(ISBLANK(A143),"",C143)</f>
         <v/>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="1" t="str">
-        <f aca="false">A144 &amp;" " &amp;"""" &amp;B144 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D144" s="1" t="str">
         <f aca="false">IF(ISBLANK(A144),"",C144)</f>
         <v/>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="1" t="str">
-        <f aca="false">A145 &amp;" " &amp;"""" &amp;B145 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D145" s="1" t="str">
         <f aca="false">IF(ISBLANK(A145),"",C145)</f>
         <v/>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="1" t="str">
-        <f aca="false">A146 &amp;" " &amp;"""" &amp;B146 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D146" s="1" t="str">
         <f aca="false">IF(ISBLANK(A146),"",C146)</f>
         <v/>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="1" t="str">
-        <f aca="false">A147 &amp;" " &amp;"""" &amp;B147 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D147" s="1" t="str">
         <f aca="false">IF(ISBLANK(A147),"",C147)</f>
         <v/>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="1" t="str">
-        <f aca="false">A148 &amp;" " &amp;"""" &amp;B148 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D148" s="1" t="str">
         <f aca="false">IF(ISBLANK(A148),"",C148)</f>
         <v/>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="1" t="str">
-        <f aca="false">A149 &amp;" " &amp;"""" &amp;B149 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D149" s="1" t="str">
         <f aca="false">IF(ISBLANK(A149),"",C149)</f>
         <v/>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C150" s="1" t="str">
-        <f aca="false">A150 &amp;" " &amp;"""" &amp;B150 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D150" s="1" t="str">
         <f aca="false">IF(ISBLANK(A150),"",C150)</f>
         <v/>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="1" t="str">
-        <f aca="false">A151 &amp;" " &amp;"""" &amp;B151 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D151" s="1" t="str">
         <f aca="false">IF(ISBLANK(A151),"",C151)</f>
         <v/>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C152" s="1" t="str">
-        <f aca="false">A152 &amp;" " &amp;"""" &amp;B152 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D152" s="1" t="str">
         <f aca="false">IF(ISBLANK(A152),"",C152)</f>
         <v/>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="1" t="str">
-        <f aca="false">A153 &amp;" " &amp;"""" &amp;B153 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D153" s="1" t="str">
         <f aca="false">IF(ISBLANK(A153),"",C153)</f>
         <v/>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="1" t="str">
-        <f aca="false">A154 &amp;" " &amp;"""" &amp;B154 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D154" s="1" t="str">
         <f aca="false">IF(ISBLANK(A154),"",C154)</f>
         <v/>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="1" t="str">
-        <f aca="false">A155 &amp;" " &amp;"""" &amp;B155 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D155" s="1" t="str">
         <f aca="false">IF(ISBLANK(A155),"",C155)</f>
         <v/>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="1" t="str">
-        <f aca="false">A156 &amp;" " &amp;"""" &amp;B156 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D156" s="1" t="str">
         <f aca="false">IF(ISBLANK(A156),"",C156)</f>
         <v/>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="1" t="str">
-        <f aca="false">A157 &amp;" " &amp;"""" &amp;B157 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D157" s="1" t="str">
         <f aca="false">IF(ISBLANK(A157),"",C157)</f>
         <v/>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="1" t="str">
-        <f aca="false">A158 &amp;" " &amp;"""" &amp;B158 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D158" s="1" t="str">
         <f aca="false">IF(ISBLANK(A158),"",C158)</f>
         <v/>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="1" t="str">
-        <f aca="false">A159 &amp;" " &amp;"""" &amp;B159 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D159" s="1" t="str">
         <f aca="false">IF(ISBLANK(A159),"",C159)</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="1" t="str">
-        <f aca="false">A160 &amp;" " &amp;"""" &amp;B160 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D160" s="1" t="str">
         <f aca="false">IF(ISBLANK(A160),"",C160)</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="1" t="str">
-        <f aca="false">A161 &amp;" " &amp;"""" &amp;B161 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D161" s="1" t="str">
         <f aca="false">IF(ISBLANK(A161),"",C161)</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="1" t="str">
-        <f aca="false">A162 &amp;" " &amp;"""" &amp;B162 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D162" s="1" t="str">
         <f aca="false">IF(ISBLANK(A162),"",C162)</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="1" t="str">
-        <f aca="false">A163 &amp;" " &amp;"""" &amp;B163 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D163" s="1" t="str">
         <f aca="false">IF(ISBLANK(A163),"",C163)</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="1" t="str">
-        <f aca="false">A164 &amp;" " &amp;"""" &amp;B164 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D164" s="1" t="str">
         <f aca="false">IF(ISBLANK(A164),"",C164)</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="1" t="str">
-        <f aca="false">A165 &amp;" " &amp;"""" &amp;B165 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D165" s="1" t="str">
         <f aca="false">IF(ISBLANK(A165),"",C165)</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="1" t="str">
-        <f aca="false">A166 &amp;" " &amp;"""" &amp;B166 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D166" s="1" t="str">
         <f aca="false">IF(ISBLANK(A166),"",C166)</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C167" s="1" t="str">
-        <f aca="false">A167 &amp;" " &amp;"""" &amp;B167 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D167" s="1" t="str">
         <f aca="false">IF(ISBLANK(A167),"",C167)</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="1" t="str">
-        <f aca="false">A168 &amp;" " &amp;"""" &amp;B168 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D168" s="1" t="str">
         <f aca="false">IF(ISBLANK(A168),"",C168)</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C169" s="1" t="str">
-        <f aca="false">A169 &amp;" " &amp;"""" &amp;B169 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D169" s="1" t="str">
         <f aca="false">IF(ISBLANK(A169),"",C169)</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="1" t="str">
-        <f aca="false">A170 &amp;" " &amp;"""" &amp;B170 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D170" s="1" t="str">
         <f aca="false">IF(ISBLANK(A170),"",C170)</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="1" t="str">
-        <f aca="false">A171 &amp;" " &amp;"""" &amp;B171 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D171" s="1" t="str">
         <f aca="false">IF(ISBLANK(A171),"",C171)</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="1" t="str">
-        <f aca="false">A172 &amp;" " &amp;"""" &amp;B172 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D172" s="1" t="str">
         <f aca="false">IF(ISBLANK(A172),"",C172)</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="1" t="str">
-        <f aca="false">A173 &amp;" " &amp;"""" &amp;B173 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D173" s="1" t="str">
         <f aca="false">IF(ISBLANK(A173),"",C173)</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="1" t="str">
-        <f aca="false">A174 &amp;" " &amp;"""" &amp;B174 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D174" s="1" t="str">
         <f aca="false">IF(ISBLANK(A174),"",C174)</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="1" t="str">
-        <f aca="false">A175 &amp;" " &amp;"""" &amp;B175 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D175" s="1" t="str">
         <f aca="false">IF(ISBLANK(A175),"",C175)</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C176" s="1" t="str">
-        <f aca="false">A176 &amp;" " &amp;"""" &amp;B176 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D176" s="1" t="str">
         <f aca="false">IF(ISBLANK(A176),"",C176)</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C177" s="1" t="str">
-        <f aca="false">A177 &amp;" " &amp;"""" &amp;B177 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D177" s="1" t="str">
         <f aca="false">IF(ISBLANK(A177),"",C177)</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C178" s="1" t="str">
-        <f aca="false">A178 &amp;" " &amp;"""" &amp;B178 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D178" s="1" t="str">
         <f aca="false">IF(ISBLANK(A178),"",C178)</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C179" s="1" t="str">
-        <f aca="false">A179 &amp;" " &amp;"""" &amp;B179 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D179" s="1" t="str">
         <f aca="false">IF(ISBLANK(A179),"",C179)</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="1" t="str">
-        <f aca="false">A180 &amp;" " &amp;"""" &amp;B180 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D180" s="1" t="str">
         <f aca="false">IF(ISBLANK(A180),"",C180)</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="1" t="str">
-        <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A181),"",C181)</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C182" s="1" t="str">
-        <f aca="false">A182 &amp;" " &amp;"""" &amp;B182 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D182" s="1" t="str">
         <f aca="false">IF(ISBLANK(A182),"",C182)</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="1" t="str">
-        <f aca="false">A183 &amp;" " &amp;"""" &amp;B183 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D183" s="1" t="str">
         <f aca="false">IF(ISBLANK(A183),"",C183)</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="1" t="str">
-        <f aca="false">A184 &amp;" " &amp;"""" &amp;B184 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D184" s="1" t="str">
         <f aca="false">IF(ISBLANK(A184),"",C184)</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="1" t="str">
-        <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A185),"",C185)</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="1" t="str">
-        <f aca="false">A186 &amp;" " &amp;"""" &amp;B186 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D186" s="1" t="str">
         <f aca="false">IF(ISBLANK(A186),"",C186)</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="1" t="str">
-        <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D187" s="1" t="str">
         <f aca="false">IF(ISBLANK(A187),"",C187)</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="1" t="str">
-        <f aca="false">A188 &amp;" " &amp;"""" &amp;B188 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D188" s="1" t="str">
         <f aca="false">IF(ISBLANK(A188),"",C188)</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="1" t="str">
-        <f aca="false">A189 &amp;" " &amp;"""" &amp;B189 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D189" s="1" t="str">
         <f aca="false">IF(ISBLANK(A189),"",C189)</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="1" t="str">
-        <f aca="false">A190 &amp;" " &amp;"""" &amp;B190 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D190" s="1" t="str">
         <f aca="false">IF(ISBLANK(A190),"",C190)</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="1" t="str">
-        <f aca="false">A191 &amp;" " &amp;"""" &amp;B191 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D191" s="1" t="str">
         <f aca="false">IF(ISBLANK(A191),"",C191)</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="1" t="str">
-        <f aca="false">A192 &amp;" " &amp;"""" &amp;B192 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D192" s="1" t="str">
         <f aca="false">IF(ISBLANK(A192),"",C192)</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="1" t="str">
-        <f aca="false">A193 &amp;" " &amp;"""" &amp;B193 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D193" s="1" t="str">
         <f aca="false">IF(ISBLANK(A193),"",C193)</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="1" t="str">
-        <f aca="false">A194 &amp;" " &amp;"""" &amp;B194 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D194" s="1" t="str">
         <f aca="false">IF(ISBLANK(A194),"",C194)</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="1" t="str">
-        <f aca="false">A195 &amp;" " &amp;"""" &amp;B195 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D195" s="1" t="str">
         <f aca="false">IF(ISBLANK(A195),"",C195)</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="1" t="str">
-        <f aca="false">A196 &amp;" " &amp;"""" &amp;B196 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D196" s="1" t="str">
         <f aca="false">IF(ISBLANK(A196),"",C196)</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="1" t="str">
-        <f aca="false">A197 &amp;" " &amp;"""" &amp;B197 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D197" s="1" t="str">
         <f aca="false">IF(ISBLANK(A197),"",C197)</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="1" t="str">
-        <f aca="false">A198 &amp;" " &amp;"""" &amp;B198 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D198" s="1" t="str">
         <f aca="false">IF(ISBLANK(A198),"",C198)</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="1" t="str">
-        <f aca="false">A199 &amp;" " &amp;"""" &amp;B199 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D199" s="1" t="str">
         <f aca="false">IF(ISBLANK(A199),"",C199)</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="1" t="str">
-        <f aca="false">A200 &amp;" " &amp;"""" &amp;B200 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D200" s="1" t="str">
         <f aca="false">IF(ISBLANK(A200),"",C200)</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="1" t="str">
-        <f aca="false">A201 &amp;" " &amp;"""" &amp;B201 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D201" s="1" t="str">
         <f aca="false">IF(ISBLANK(A201),"",C201)</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="1" t="str">
-        <f aca="false">A202 &amp;" " &amp;"""" &amp;B202 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D202" s="1" t="str">
         <f aca="false">IF(ISBLANK(A202),"",C202)</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="1" t="str">
-        <f aca="false">A203 &amp;" " &amp;"""" &amp;B203 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D203" s="1" t="str">
         <f aca="false">IF(ISBLANK(A203),"",C203)</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="1" t="str">
-        <f aca="false">A204 &amp;" " &amp;"""" &amp;B204 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D204" s="1" t="str">
         <f aca="false">IF(ISBLANK(A204),"",C204)</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="1" t="str">
-        <f aca="false">A205 &amp;" " &amp;"""" &amp;B205 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D205" s="1" t="str">
         <f aca="false">IF(ISBLANK(A205),"",C205)</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="1" t="str">
-        <f aca="false">A206 &amp;" " &amp;"""" &amp;B206 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D206" s="1" t="str">
         <f aca="false">IF(ISBLANK(A206),"",C206)</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="1" t="str">
-        <f aca="false">A207 &amp;" " &amp;"""" &amp;B207 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D207" s="1" t="str">
         <f aca="false">IF(ISBLANK(A207),"",C207)</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="1" t="str">
-        <f aca="false">A208 &amp;" " &amp;"""" &amp;B208 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D208" s="1" t="str">
         <f aca="false">IF(ISBLANK(A208),"",C208)</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="1" t="str">
-        <f aca="false">A209 &amp;" " &amp;"""" &amp;B209 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D209" s="1" t="str">
         <f aca="false">IF(ISBLANK(A209),"",C209)</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="1" t="str">
-        <f aca="false">A210 &amp;" " &amp;"""" &amp;B210 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D210" s="1" t="str">
         <f aca="false">IF(ISBLANK(A210),"",C210)</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="1" t="str">
-        <f aca="false">A211 &amp;" " &amp;"""" &amp;B211 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D211" s="1" t="str">
         <f aca="false">IF(ISBLANK(A211),"",C211)</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="1" t="str">
-        <f aca="false">A212 &amp;" " &amp;"""" &amp;B212 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D212" s="1" t="str">
         <f aca="false">IF(ISBLANK(A212),"",C212)</f>
         <v/>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="1" t="str">
-        <f aca="false">A213 &amp;" " &amp;"""" &amp;B213 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D213" s="1" t="str">
         <f aca="false">IF(ISBLANK(A213),"",C213)</f>
         <v/>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C214" s="1" t="str">
-        <f aca="false">A214 &amp;" " &amp;"""" &amp;B214 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D214" s="1" t="str">
         <f aca="false">IF(ISBLANK(A214),"",C214)</f>
         <v/>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="1" t="str">
-        <f aca="false">A215 &amp;" " &amp;"""" &amp;B215 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D215" s="1" t="str">
         <f aca="false">IF(ISBLANK(A215),"",C215)</f>
         <v/>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C216" s="1" t="str">
-        <f aca="false">A216 &amp;" " &amp;"""" &amp;B216 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D216" s="1" t="str">
         <f aca="false">IF(ISBLANK(A216),"",C216)</f>
         <v/>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="1" t="str">
-        <f aca="false">A217 &amp;" " &amp;"""" &amp;B217 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D217" s="1" t="str">
         <f aca="false">IF(ISBLANK(A217),"",C217)</f>
         <v/>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="1" t="str">
-        <f aca="false">A218 &amp;" " &amp;"""" &amp;B218 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D218" s="1" t="str">
         <f aca="false">IF(ISBLANK(A218),"",C218)</f>
         <v/>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="1" t="str">
-        <f aca="false">A219 &amp;" " &amp;"""" &amp;B219 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D219" s="1" t="str">
         <f aca="false">IF(ISBLANK(A219),"",C219)</f>
         <v/>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C220" s="1" t="str">
-        <f aca="false">A220 &amp;" " &amp;"""" &amp;B220 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D220" s="1" t="str">
         <f aca="false">IF(ISBLANK(A220),"",C220)</f>
         <v/>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="1" t="str">
-        <f aca="false">A221 &amp;" " &amp;"""" &amp;B221 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D221" s="1" t="str">
         <f aca="false">IF(ISBLANK(A221),"",C221)</f>
         <v/>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="1" t="str">
-        <f aca="false">A222 &amp;" " &amp;"""" &amp;B222 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D222" s="1" t="str">
         <f aca="false">IF(ISBLANK(A222),"",C222)</f>
         <v/>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="1" t="str">
-        <f aca="false">A223 &amp;" " &amp;"""" &amp;B223 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D223" s="1" t="str">
         <f aca="false">IF(ISBLANK(A223),"",C223)</f>
         <v/>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="1" t="str">
-        <f aca="false">A224 &amp;" " &amp;"""" &amp;B224 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D224" s="1" t="str">
         <f aca="false">IF(ISBLANK(A224),"",C224)</f>
         <v/>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="1" t="str">
-        <f aca="false">A225 &amp;" " &amp;"""" &amp;B225 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D225" s="1" t="str">
         <f aca="false">IF(ISBLANK(A225),"",C225)</f>
         <v/>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="1" t="str">
-        <f aca="false">A226 &amp;" " &amp;"""" &amp;B226 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D226" s="1" t="str">
         <f aca="false">IF(ISBLANK(A226),"",C226)</f>
         <v/>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="1" t="str">
-        <f aca="false">A227 &amp;" " &amp;"""" &amp;B227 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D227" s="1" t="str">
         <f aca="false">IF(ISBLANK(A227),"",C227)</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="1" t="str">
-        <f aca="false">A228 &amp;" " &amp;"""" &amp;B228 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D228" s="1" t="str">
         <f aca="false">IF(ISBLANK(A228),"",C228)</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="1" t="str">
-        <f aca="false">A229 &amp;" " &amp;"""" &amp;B229 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D229" s="1" t="str">
         <f aca="false">IF(ISBLANK(A229),"",C229)</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="1" t="str">
-        <f aca="false">A230 &amp;" " &amp;"""" &amp;B230 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D230" s="1" t="str">
         <f aca="false">IF(ISBLANK(A230),"",C230)</f>
         <v/>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="1" t="str">
-        <f aca="false">A231 &amp;" " &amp;"""" &amp;B231 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D231" s="1" t="str">
         <f aca="false">IF(ISBLANK(A231),"",C231)</f>
         <v/>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="1" t="str">
-        <f aca="false">A232 &amp;" " &amp;"""" &amp;B232 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D232" s="1" t="str">
         <f aca="false">IF(ISBLANK(A232),"",C232)</f>
         <v/>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="1" t="str">
-        <f aca="false">A233 &amp;" " &amp;"""" &amp;B233 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D233" s="1" t="str">
         <f aca="false">IF(ISBLANK(A233),"",C233)</f>
         <v/>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="1" t="str">
-        <f aca="false">A234 &amp;" " &amp;"""" &amp;B234 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D234" s="1" t="str">
         <f aca="false">IF(ISBLANK(A234),"",C234)</f>
         <v/>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="1" t="str">
-        <f aca="false">A235 &amp;" " &amp;"""" &amp;B235 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D235" s="1" t="str">
         <f aca="false">IF(ISBLANK(A235),"",C235)</f>
         <v/>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="1" t="str">
-        <f aca="false">A236 &amp;" " &amp;"""" &amp;B236 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D236" s="1" t="str">
         <f aca="false">IF(ISBLANK(A236),"",C236)</f>
         <v/>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="1" t="str">
-        <f aca="false">A237 &amp;" " &amp;"""" &amp;B237 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D237" s="1" t="str">
         <f aca="false">IF(ISBLANK(A237),"",C237)</f>
         <v/>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="1" t="str">
-        <f aca="false">A238 &amp;" " &amp;"""" &amp;B238 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D238" s="1" t="str">
         <f aca="false">IF(ISBLANK(A238),"",C238)</f>
         <v/>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="1" t="str">
-        <f aca="false">A239 &amp;" " &amp;"""" &amp;B239 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D239" s="1" t="str">
         <f aca="false">IF(ISBLANK(A239),"",C239)</f>
         <v/>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="1" t="str">
-        <f aca="false">A240 &amp;" " &amp;"""" &amp;B240 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D240" s="1" t="str">
         <f aca="false">IF(ISBLANK(A240),"",C240)</f>
         <v/>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="1" t="str">
-        <f aca="false">A241 &amp;" " &amp;"""" &amp;B241 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D241" s="1" t="str">
         <f aca="false">IF(ISBLANK(A241),"",C241)</f>
         <v/>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="1" t="str">
-        <f aca="false">A242 &amp;" " &amp;"""" &amp;B242 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D242" s="1" t="str">
         <f aca="false">IF(ISBLANK(A242),"",C242)</f>
         <v/>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="1" t="str">
-        <f aca="false">A243 &amp;" " &amp;"""" &amp;B243 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D243" s="1" t="str">
         <f aca="false">IF(ISBLANK(A243),"",C243)</f>
         <v/>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="1" t="str">
-        <f aca="false">A244 &amp;" " &amp;"""" &amp;B244 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D244" s="1" t="str">
         <f aca="false">IF(ISBLANK(A244),"",C244)</f>
         <v/>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="1" t="str">
-        <f aca="false">A245 &amp;" " &amp;"""" &amp;B245 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D245" s="1" t="str">
         <f aca="false">IF(ISBLANK(A245),"",C245)</f>
         <v/>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="1" t="str">
-        <f aca="false">A246 &amp;" " &amp;"""" &amp;B246 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D246" s="1" t="str">
         <f aca="false">IF(ISBLANK(A246),"",C246)</f>
         <v/>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C247" s="1" t="str">
-        <f aca="false">A247 &amp;" " &amp;"""" &amp;B247 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D247" s="1" t="str">
         <f aca="false">IF(ISBLANK(A247),"",C247)</f>
         <v/>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="1" t="str">
-        <f aca="false">A248 &amp;" " &amp;"""" &amp;B248 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D248" s="1" t="str">
         <f aca="false">IF(ISBLANK(A248),"",C248)</f>
         <v/>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="1" t="str">
-        <f aca="false">A249 &amp;" " &amp;"""" &amp;B249 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D249" s="1" t="str">
         <f aca="false">IF(ISBLANK(A249),"",C249)</f>
         <v/>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="1" t="str">
-        <f aca="false">A250 &amp;" " &amp;"""" &amp;B250 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D250" s="1" t="str">
         <f aca="false">IF(ISBLANK(A250),"",C250)</f>
         <v/>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="1" t="str">
-        <f aca="false">A251 &amp;" " &amp;"""" &amp;B251 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D251" s="1" t="str">
         <f aca="false">IF(ISBLANK(A251),"",C251)</f>
         <v/>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="1" t="str">
-        <f aca="false">A252 &amp;" " &amp;"""" &amp;B252 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D252" s="1" t="str">
         <f aca="false">IF(ISBLANK(A252),"",C252)</f>
         <v/>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="1" t="str">
-        <f aca="false">A253 &amp;" " &amp;"""" &amp;B253 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D253" s="1" t="str">
         <f aca="false">IF(ISBLANK(A253),"",C253)</f>
         <v/>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C254" s="1" t="str">
-        <f aca="false">A254 &amp;" " &amp;"""" &amp;B254 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D254" s="1" t="str">
         <f aca="false">IF(ISBLANK(A254),"",C254)</f>
         <v/>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C255" s="1" t="str">
-        <f aca="false">A255 &amp;" " &amp;"""" &amp;B255 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D255" s="1" t="str">
         <f aca="false">IF(ISBLANK(A255),"",C255)</f>
         <v/>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C256" s="1" t="str">
-        <f aca="false">A256 &amp;" " &amp;"""" &amp;B256 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D256" s="1" t="str">
         <f aca="false">IF(ISBLANK(A256),"",C256)</f>
         <v/>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C257" s="1" t="str">
-        <f aca="false">A257 &amp;" " &amp;"""" &amp;B257 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D257" s="1" t="str">
         <f aca="false">IF(ISBLANK(A257),"",C257)</f>
         <v/>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C258" s="1" t="str">
-        <f aca="false">A258 &amp;" " &amp;"""" &amp;B258 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D258" s="1" t="str">
         <f aca="false">IF(ISBLANK(A258),"",C258)</f>
         <v/>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C259" s="1" t="str">
-        <f aca="false">A259 &amp;" " &amp;"""" &amp;B259 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D259" s="1" t="str">
         <f aca="false">IF(ISBLANK(A259),"",C259)</f>
         <v/>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C260" s="1" t="str">
-        <f aca="false">A260 &amp;" " &amp;"""" &amp;B260 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D260" s="1" t="str">
         <f aca="false">IF(ISBLANK(A260),"",C260)</f>
         <v/>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C261" s="1" t="str">
-        <f aca="false">A261 &amp;" " &amp;"""" &amp;B261 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D261" s="1" t="str">
         <f aca="false">IF(ISBLANK(A261),"",C261)</f>
         <v/>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C262" s="1" t="str">
-        <f aca="false">A262 &amp;" " &amp;"""" &amp;B262 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D262" s="1" t="str">
         <f aca="false">IF(ISBLANK(A262),"",C262)</f>
         <v/>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C263" s="1" t="str">
-        <f aca="false">A263 &amp;" " &amp;"""" &amp;B263 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D263" s="1" t="str">
         <f aca="false">IF(ISBLANK(A263),"",C263)</f>
         <v/>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C264" s="1" t="str">
-        <f aca="false">A264 &amp;" " &amp;"""" &amp;B264 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D264" s="1" t="str">
         <f aca="false">IF(ISBLANK(A264),"",C264)</f>
         <v/>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="1" t="str">
-        <f aca="false">A265 &amp;" " &amp;"""" &amp;B265 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D265" s="1" t="str">
         <f aca="false">IF(ISBLANK(A265),"",C265)</f>
         <v/>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C266" s="1" t="str">
-        <f aca="false">A266 &amp;" " &amp;"""" &amp;B266 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D266" s="1" t="str">
         <f aca="false">IF(ISBLANK(A266),"",C266)</f>
         <v/>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="1" t="str">
-        <f aca="false">A267 &amp;" " &amp;"""" &amp;B267 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D267" s="1" t="str">
         <f aca="false">IF(ISBLANK(A267),"",C267)</f>
         <v/>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="1" t="str">
-        <f aca="false">A268 &amp;" " &amp;"""" &amp;B268 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D268" s="1" t="str">
         <f aca="false">IF(ISBLANK(A268),"",C268)</f>
         <v/>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="1" t="str">
-        <f aca="false">A269 &amp;" " &amp;"""" &amp;B269 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D269" s="1" t="str">
         <f aca="false">IF(ISBLANK(A269),"",C269)</f>
         <v/>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C270" s="1" t="str">
-        <f aca="false">A270 &amp;" " &amp;"""" &amp;B270 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D270" s="1" t="str">
         <f aca="false">IF(ISBLANK(A270),"",C270)</f>
         <v/>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="1" t="str">
-        <f aca="false">A271 &amp;" " &amp;"""" &amp;B271 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D271" s="1" t="str">
         <f aca="false">IF(ISBLANK(A271),"",C271)</f>
         <v/>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="1" t="str">
-        <f aca="false">A272 &amp;" " &amp;"""" &amp;B272 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D272" s="1" t="str">
         <f aca="false">IF(ISBLANK(A272),"",C272)</f>
         <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="1" t="str">
-        <f aca="false">A273 &amp;" " &amp;"""" &amp;B273 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D273" s="1" t="str">
         <f aca="false">IF(ISBLANK(A273),"",C273)</f>
         <v/>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="1" t="str">
-        <f aca="false">A274 &amp;" " &amp;"""" &amp;B274 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D274" s="1" t="str">
         <f aca="false">IF(ISBLANK(A274),"",C274)</f>
         <v/>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="1" t="str">
-        <f aca="false">A275 &amp;" " &amp;"""" &amp;B275 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D275" s="1" t="str">
         <f aca="false">IF(ISBLANK(A275),"",C275)</f>
         <v/>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="1" t="str">
-        <f aca="false">A276 &amp;" " &amp;"""" &amp;B276 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D276" s="1" t="str">
         <f aca="false">IF(ISBLANK(A276),"",C276)</f>
         <v/>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="1" t="str">
-        <f aca="false">A277 &amp;" " &amp;"""" &amp;B277 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D277" s="1" t="str">
         <f aca="false">IF(ISBLANK(A277),"",C277)</f>
         <v/>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C278" s="1" t="str">
-        <f aca="false">A278 &amp;" " &amp;"""" &amp;B278 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D278" s="1" t="str">
         <f aca="false">IF(ISBLANK(A278),"",C278)</f>
         <v/>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C279" s="1" t="str">
-        <f aca="false">A279 &amp;" " &amp;"""" &amp;B279 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D279" s="1" t="str">
         <f aca="false">IF(ISBLANK(A279),"",C279)</f>
         <v/>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="1" t="str">
-        <f aca="false">A280 &amp;" " &amp;"""" &amp;B280 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D280" s="1" t="str">
         <f aca="false">IF(ISBLANK(A280),"",C280)</f>
         <v/>
@@ -3664,2110 +2760,1266 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="2"/>
-      <c r="C281" s="1" t="str">
-        <f aca="false">A281 &amp;" " &amp;"""" &amp;B281 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D281" s="1" t="str">
         <f aca="false">IF(ISBLANK(A281),"",C281)</f>
         <v/>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C282" s="1" t="str">
-        <f aca="false">A282 &amp;" " &amp;"""" &amp;B282 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D282" s="1" t="str">
         <f aca="false">IF(ISBLANK(A282),"",C282)</f>
         <v/>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C283" s="1" t="str">
-        <f aca="false">A283 &amp;" " &amp;"""" &amp;B283 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D283" s="1" t="str">
         <f aca="false">IF(ISBLANK(A283),"",C283)</f>
         <v/>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C284" s="1" t="str">
-        <f aca="false">A284 &amp;" " &amp;"""" &amp;B284 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D284" s="1" t="str">
         <f aca="false">IF(ISBLANK(A284),"",C284)</f>
         <v/>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C285" s="1" t="str">
-        <f aca="false">A285 &amp;" " &amp;"""" &amp;B285 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D285" s="1" t="str">
         <f aca="false">IF(ISBLANK(A285),"",C285)</f>
         <v/>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C286" s="1" t="str">
-        <f aca="false">A286 &amp;" " &amp;"""" &amp;B286 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D286" s="1" t="str">
         <f aca="false">IF(ISBLANK(A286),"",C286)</f>
         <v/>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="1" t="str">
-        <f aca="false">A287 &amp;" " &amp;"""" &amp;B287 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D287" s="1" t="str">
         <f aca="false">IF(ISBLANK(A287),"",C287)</f>
         <v/>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="1" t="str">
-        <f aca="false">A288 &amp;" " &amp;"""" &amp;B288 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D288" s="1" t="str">
         <f aca="false">IF(ISBLANK(A288),"",C288)</f>
         <v/>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="1" t="str">
-        <f aca="false">A289 &amp;" " &amp;"""" &amp;B289 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D289" s="1" t="str">
         <f aca="false">IF(ISBLANK(A289),"",C289)</f>
         <v/>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="1" t="str">
-        <f aca="false">A290 &amp;" " &amp;"""" &amp;B290 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D290" s="1" t="str">
         <f aca="false">IF(ISBLANK(A290),"",C290)</f>
         <v/>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="1" t="str">
-        <f aca="false">A291 &amp;" " &amp;"""" &amp;B291 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D291" s="1" t="str">
         <f aca="false">IF(ISBLANK(A291),"",C291)</f>
         <v/>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="1" t="str">
-        <f aca="false">A292 &amp;" " &amp;"""" &amp;B292 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D292" s="1" t="str">
         <f aca="false">IF(ISBLANK(A292),"",C292)</f>
         <v/>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="1" t="str">
-        <f aca="false">A293 &amp;" " &amp;"""" &amp;B293 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D293" s="1" t="str">
         <f aca="false">IF(ISBLANK(A293),"",C293)</f>
         <v/>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="1" t="str">
-        <f aca="false">A294 &amp;" " &amp;"""" &amp;B294 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D294" s="1" t="str">
         <f aca="false">IF(ISBLANK(A294),"",C294)</f>
         <v/>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="1" t="str">
-        <f aca="false">A295 &amp;" " &amp;"""" &amp;B295 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D295" s="1" t="str">
         <f aca="false">IF(ISBLANK(A295),"",C295)</f>
         <v/>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="1" t="str">
-        <f aca="false">A296 &amp;" " &amp;"""" &amp;B296 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D296" s="1" t="str">
         <f aca="false">IF(ISBLANK(A296),"",C296)</f>
         <v/>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="1" t="str">
-        <f aca="false">A297 &amp;" " &amp;"""" &amp;B297 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D297" s="1" t="str">
         <f aca="false">IF(ISBLANK(A297),"",C297)</f>
         <v/>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="1" t="str">
-        <f aca="false">A298 &amp;" " &amp;"""" &amp;B298 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D298" s="1" t="str">
         <f aca="false">IF(ISBLANK(A298),"",C298)</f>
         <v/>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="1" t="str">
-        <f aca="false">A299 &amp;" " &amp;"""" &amp;B299 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D299" s="1" t="str">
         <f aca="false">IF(ISBLANK(A299),"",C299)</f>
         <v/>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="1" t="str">
-        <f aca="false">A300 &amp;" " &amp;"""" &amp;B300 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D300" s="1" t="str">
         <f aca="false">IF(ISBLANK(A300),"",C300)</f>
         <v/>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="1" t="str">
-        <f aca="false">A301 &amp;" " &amp;"""" &amp;B301 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D301" s="1" t="str">
         <f aca="false">IF(ISBLANK(A301),"",C301)</f>
         <v/>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="1" t="str">
-        <f aca="false">A302 &amp;" " &amp;"""" &amp;B302 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D302" s="1" t="str">
         <f aca="false">IF(ISBLANK(A302),"",C302)</f>
         <v/>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C303" s="1" t="str">
-        <f aca="false">A303 &amp;" " &amp;"""" &amp;B303 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D303" s="1" t="str">
         <f aca="false">IF(ISBLANK(A303),"",C303)</f>
         <v/>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C304" s="1" t="str">
-        <f aca="false">A304 &amp;" " &amp;"""" &amp;B304 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D304" s="1" t="str">
         <f aca="false">IF(ISBLANK(A304),"",C304)</f>
         <v/>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C305" s="1" t="str">
-        <f aca="false">A305 &amp;" " &amp;"""" &amp;B305 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D305" s="1" t="str">
         <f aca="false">IF(ISBLANK(A305),"",C305)</f>
         <v/>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C306" s="1" t="str">
-        <f aca="false">A306 &amp;" " &amp;"""" &amp;B306 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D306" s="1" t="str">
         <f aca="false">IF(ISBLANK(A306),"",C306)</f>
         <v/>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C307" s="1" t="str">
-        <f aca="false">A307 &amp;" " &amp;"""" &amp;B307 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D307" s="1" t="str">
         <f aca="false">IF(ISBLANK(A307),"",C307)</f>
         <v/>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C308" s="1" t="str">
-        <f aca="false">A308 &amp;" " &amp;"""" &amp;B308 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D308" s="1" t="str">
         <f aca="false">IF(ISBLANK(A308),"",C308)</f>
         <v/>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C309" s="1" t="str">
-        <f aca="false">A309 &amp;" " &amp;"""" &amp;B309 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D309" s="1" t="str">
         <f aca="false">IF(ISBLANK(A309),"",C309)</f>
         <v/>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C310" s="1" t="str">
-        <f aca="false">A310 &amp;" " &amp;"""" &amp;B310 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D310" s="1" t="str">
         <f aca="false">IF(ISBLANK(A310),"",C310)</f>
         <v/>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C311" s="1" t="str">
-        <f aca="false">A311 &amp;" " &amp;"""" &amp;B311 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D311" s="1" t="str">
         <f aca="false">IF(ISBLANK(A311),"",C311)</f>
         <v/>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C312" s="1" t="str">
-        <f aca="false">A312 &amp;" " &amp;"""" &amp;B312 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D312" s="1" t="str">
         <f aca="false">IF(ISBLANK(A312),"",C312)</f>
         <v/>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C313" s="1" t="str">
-        <f aca="false">A313 &amp;" " &amp;"""" &amp;B313 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D313" s="1" t="str">
         <f aca="false">IF(ISBLANK(A313),"",C313)</f>
         <v/>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C314" s="1" t="str">
-        <f aca="false">A314 &amp;" " &amp;"""" &amp;B314 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D314" s="1" t="str">
         <f aca="false">IF(ISBLANK(A314),"",C314)</f>
         <v/>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C315" s="1" t="str">
-        <f aca="false">A315 &amp;" " &amp;"""" &amp;B315 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D315" s="1" t="str">
         <f aca="false">IF(ISBLANK(A315),"",C315)</f>
         <v/>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C316" s="1" t="str">
-        <f aca="false">A316 &amp;" " &amp;"""" &amp;B316 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D316" s="1" t="str">
         <f aca="false">IF(ISBLANK(A316),"",C316)</f>
         <v/>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C317" s="1" t="str">
-        <f aca="false">A317 &amp;" " &amp;"""" &amp;B317 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D317" s="1" t="str">
         <f aca="false">IF(ISBLANK(A317),"",C317)</f>
         <v/>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C318" s="1" t="str">
-        <f aca="false">A318 &amp;" " &amp;"""" &amp;B318 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D318" s="1" t="str">
         <f aca="false">IF(ISBLANK(A318),"",C318)</f>
         <v/>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C319" s="1" t="str">
-        <f aca="false">A319 &amp;" " &amp;"""" &amp;B319 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D319" s="1" t="str">
         <f aca="false">IF(ISBLANK(A319),"",C319)</f>
         <v/>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C320" s="1" t="str">
-        <f aca="false">A320 &amp;" " &amp;"""" &amp;B320 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D320" s="1" t="str">
         <f aca="false">IF(ISBLANK(A320),"",C320)</f>
         <v/>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C321" s="1" t="str">
-        <f aca="false">A321 &amp;" " &amp;"""" &amp;B321 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D321" s="1" t="str">
         <f aca="false">IF(ISBLANK(A321),"",C321)</f>
         <v/>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C322" s="1" t="str">
-        <f aca="false">A322 &amp;" " &amp;"""" &amp;B322 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D322" s="1" t="str">
         <f aca="false">IF(ISBLANK(A322),"",C322)</f>
         <v/>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C323" s="1" t="str">
-        <f aca="false">A323 &amp;" " &amp;"""" &amp;B323 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D323" s="1" t="str">
         <f aca="false">IF(ISBLANK(A323),"",C323)</f>
         <v/>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C324" s="1" t="str">
-        <f aca="false">A324 &amp;" " &amp;"""" &amp;B324 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D324" s="1" t="str">
         <f aca="false">IF(ISBLANK(A324),"",C324)</f>
         <v/>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C325" s="1" t="str">
-        <f aca="false">A325 &amp;" " &amp;"""" &amp;B325 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D325" s="1" t="str">
         <f aca="false">IF(ISBLANK(A325),"",C325)</f>
         <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C326" s="1" t="str">
-        <f aca="false">A326 &amp;" " &amp;"""" &amp;B326 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D326" s="1" t="str">
         <f aca="false">IF(ISBLANK(A326),"",C326)</f>
         <v/>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C327" s="1" t="str">
-        <f aca="false">A327 &amp;" " &amp;"""" &amp;B327 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D327" s="1" t="str">
         <f aca="false">IF(ISBLANK(A327),"",C327)</f>
         <v/>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C328" s="1" t="str">
-        <f aca="false">A328 &amp;" " &amp;"""" &amp;B328 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D328" s="1" t="str">
         <f aca="false">IF(ISBLANK(A328),"",C328)</f>
         <v/>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C329" s="1" t="str">
-        <f aca="false">A329 &amp;" " &amp;"""" &amp;B329 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D329" s="1" t="str">
         <f aca="false">IF(ISBLANK(A329),"",C329)</f>
         <v/>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C330" s="1" t="str">
-        <f aca="false">A330 &amp;" " &amp;"""" &amp;B330 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D330" s="1" t="str">
         <f aca="false">IF(ISBLANK(A330),"",C330)</f>
         <v/>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C331" s="1" t="str">
-        <f aca="false">A331 &amp;" " &amp;"""" &amp;B331 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D331" s="1" t="str">
         <f aca="false">IF(ISBLANK(A331),"",C331)</f>
         <v/>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C332" s="1" t="str">
-        <f aca="false">A332 &amp;" " &amp;"""" &amp;B332 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D332" s="1" t="str">
         <f aca="false">IF(ISBLANK(A332),"",C332)</f>
         <v/>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C333" s="1" t="str">
-        <f aca="false">A333 &amp;" " &amp;"""" &amp;B333 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D333" s="1" t="str">
         <f aca="false">IF(ISBLANK(A333),"",C333)</f>
         <v/>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C334" s="1" t="str">
-        <f aca="false">A334 &amp;" " &amp;"""" &amp;B334 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D334" s="1" t="str">
         <f aca="false">IF(ISBLANK(A334),"",C334)</f>
         <v/>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C335" s="1" t="str">
-        <f aca="false">A335 &amp;" " &amp;"""" &amp;B335 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D335" s="1" t="str">
         <f aca="false">IF(ISBLANK(A335),"",C335)</f>
         <v/>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C336" s="1" t="str">
-        <f aca="false">A336 &amp;" " &amp;"""" &amp;B336 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D336" s="1" t="str">
         <f aca="false">IF(ISBLANK(A336),"",C336)</f>
         <v/>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="1" t="str">
-        <f aca="false">A337 &amp;" " &amp;"""" &amp;B337 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D337" s="1" t="str">
         <f aca="false">IF(ISBLANK(A337),"",C337)</f>
         <v/>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="1" t="str">
-        <f aca="false">A338 &amp;" " &amp;"""" &amp;B338 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D338" s="1" t="str">
         <f aca="false">IF(ISBLANK(A338),"",C338)</f>
         <v/>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C339" s="1" t="str">
-        <f aca="false">A339 &amp;" " &amp;"""" &amp;B339 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D339" s="1" t="str">
         <f aca="false">IF(ISBLANK(A339),"",C339)</f>
         <v/>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C340" s="1" t="str">
-        <f aca="false">A340 &amp;" " &amp;"""" &amp;B340 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D340" s="1" t="str">
         <f aca="false">IF(ISBLANK(A340),"",C340)</f>
         <v/>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="1" t="str">
-        <f aca="false">A341 &amp;" " &amp;"""" &amp;B341 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D341" s="1" t="str">
         <f aca="false">IF(ISBLANK(A341),"",C341)</f>
         <v/>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="1" t="str">
-        <f aca="false">A342 &amp;" " &amp;"""" &amp;B342 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D342" s="1" t="str">
         <f aca="false">IF(ISBLANK(A342),"",C342)</f>
         <v/>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C343" s="1" t="str">
-        <f aca="false">A343 &amp;" " &amp;"""" &amp;B343 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D343" s="1" t="str">
         <f aca="false">IF(ISBLANK(A343),"",C343)</f>
         <v/>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C344" s="1" t="str">
-        <f aca="false">A344 &amp;" " &amp;"""" &amp;B344 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D344" s="1" t="str">
         <f aca="false">IF(ISBLANK(A344),"",C344)</f>
         <v/>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C345" s="1" t="str">
-        <f aca="false">A345 &amp;" " &amp;"""" &amp;B345 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D345" s="1" t="str">
         <f aca="false">IF(ISBLANK(A345),"",C345)</f>
         <v/>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C346" s="1" t="str">
-        <f aca="false">A346 &amp;" " &amp;"""" &amp;B346 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D346" s="1" t="str">
         <f aca="false">IF(ISBLANK(A346),"",C346)</f>
         <v/>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C347" s="1" t="str">
-        <f aca="false">A347 &amp;" " &amp;"""" &amp;B347 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D347" s="1" t="str">
         <f aca="false">IF(ISBLANK(A347),"",C347)</f>
         <v/>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C348" s="1" t="str">
-        <f aca="false">A348 &amp;" " &amp;"""" &amp;B348 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D348" s="1" t="str">
         <f aca="false">IF(ISBLANK(A348),"",C348)</f>
         <v/>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C349" s="1" t="str">
-        <f aca="false">A349 &amp;" " &amp;"""" &amp;B349 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D349" s="1" t="str">
         <f aca="false">IF(ISBLANK(A349),"",C349)</f>
         <v/>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C350" s="1" t="str">
-        <f aca="false">A350 &amp;" " &amp;"""" &amp;B350 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D350" s="1" t="str">
         <f aca="false">IF(ISBLANK(A350),"",C350)</f>
         <v/>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C351" s="1" t="str">
-        <f aca="false">A351 &amp;" " &amp;"""" &amp;B351 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D351" s="1" t="str">
         <f aca="false">IF(ISBLANK(A351),"",C351)</f>
         <v/>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C352" s="1" t="str">
-        <f aca="false">A352 &amp;" " &amp;"""" &amp;B352 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D352" s="1" t="str">
         <f aca="false">IF(ISBLANK(A352),"",C352)</f>
         <v/>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C353" s="1" t="str">
-        <f aca="false">A353 &amp;" " &amp;"""" &amp;B353 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D353" s="1" t="str">
         <f aca="false">IF(ISBLANK(A353),"",C353)</f>
         <v/>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C354" s="1" t="str">
-        <f aca="false">A354 &amp;" " &amp;"""" &amp;B354 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D354" s="1" t="str">
         <f aca="false">IF(ISBLANK(A354),"",C354)</f>
         <v/>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C355" s="1" t="str">
-        <f aca="false">A355 &amp;" " &amp;"""" &amp;B355 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D355" s="1" t="str">
         <f aca="false">IF(ISBLANK(A355),"",C355)</f>
         <v/>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C356" s="1" t="str">
-        <f aca="false">A356 &amp;" " &amp;"""" &amp;B356 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D356" s="1" t="str">
         <f aca="false">IF(ISBLANK(A356),"",C356)</f>
         <v/>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="1" t="str">
-        <f aca="false">A357 &amp;" " &amp;"""" &amp;B357 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D357" s="1" t="str">
         <f aca="false">IF(ISBLANK(A357),"",C357)</f>
         <v/>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="1" t="str">
-        <f aca="false">A358 &amp;" " &amp;"""" &amp;B358 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D358" s="1" t="str">
         <f aca="false">IF(ISBLANK(A358),"",C358)</f>
         <v/>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="1" t="str">
-        <f aca="false">A359 &amp;" " &amp;"""" &amp;B359 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D359" s="1" t="str">
         <f aca="false">IF(ISBLANK(A359),"",C359)</f>
         <v/>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C360" s="1" t="str">
-        <f aca="false">A360 &amp;" " &amp;"""" &amp;B360 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D360" s="1" t="str">
         <f aca="false">IF(ISBLANK(A360),"",C360)</f>
         <v/>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="1" t="str">
-        <f aca="false">A361 &amp;" " &amp;"""" &amp;B361 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D361" s="1" t="str">
         <f aca="false">IF(ISBLANK(A361),"",C361)</f>
         <v/>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="1" t="str">
-        <f aca="false">A362 &amp;" " &amp;"""" &amp;B362 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D362" s="1" t="str">
         <f aca="false">IF(ISBLANK(A362),"",C362)</f>
         <v/>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="1" t="str">
-        <f aca="false">A363 &amp;" " &amp;"""" &amp;B363 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D363" s="1" t="str">
         <f aca="false">IF(ISBLANK(A363),"",C363)</f>
         <v/>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C364" s="1" t="str">
-        <f aca="false">A364 &amp;" " &amp;"""" &amp;B364 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D364" s="1" t="str">
         <f aca="false">IF(ISBLANK(A364),"",C364)</f>
         <v/>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C365" s="1" t="str">
-        <f aca="false">A365 &amp;" " &amp;"""" &amp;B365 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D365" s="1" t="str">
         <f aca="false">IF(ISBLANK(A365),"",C365)</f>
         <v/>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C366" s="1" t="str">
-        <f aca="false">A366 &amp;" " &amp;"""" &amp;B366 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D366" s="1" t="str">
         <f aca="false">IF(ISBLANK(A366),"",C366)</f>
         <v/>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="1" t="str">
-        <f aca="false">A367 &amp;" " &amp;"""" &amp;B367 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D367" s="1" t="str">
         <f aca="false">IF(ISBLANK(A367),"",C367)</f>
         <v/>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C368" s="1" t="str">
-        <f aca="false">A368 &amp;" " &amp;"""" &amp;B368 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D368" s="1" t="str">
         <f aca="false">IF(ISBLANK(A368),"",C368)</f>
         <v/>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C369" s="1" t="str">
-        <f aca="false">A369 &amp;" " &amp;"""" &amp;B369 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D369" s="1" t="str">
         <f aca="false">IF(ISBLANK(A369),"",C369)</f>
         <v/>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C370" s="1" t="str">
-        <f aca="false">A370 &amp;" " &amp;"""" &amp;B370 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D370" s="1" t="str">
         <f aca="false">IF(ISBLANK(A370),"",C370)</f>
         <v/>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C371" s="1" t="str">
-        <f aca="false">A371 &amp;" " &amp;"""" &amp;B371 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D371" s="1" t="str">
         <f aca="false">IF(ISBLANK(A371),"",C371)</f>
         <v/>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="1" t="str">
-        <f aca="false">A372 &amp;" " &amp;"""" &amp;B372 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D372" s="1" t="str">
         <f aca="false">IF(ISBLANK(A372),"",C372)</f>
         <v/>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C373" s="1" t="str">
-        <f aca="false">A373 &amp;" " &amp;"""" &amp;B373 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D373" s="1" t="str">
         <f aca="false">IF(ISBLANK(A373),"",C373)</f>
         <v/>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C374" s="1" t="str">
-        <f aca="false">A374 &amp;" " &amp;"""" &amp;B374 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D374" s="1" t="str">
         <f aca="false">IF(ISBLANK(A374),"",C374)</f>
         <v/>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C375" s="1" t="str">
-        <f aca="false">A375 &amp;" " &amp;"""" &amp;B375 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D375" s="1" t="str">
         <f aca="false">IF(ISBLANK(A375),"",C375)</f>
         <v/>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C376" s="1" t="str">
-        <f aca="false">A376 &amp;" " &amp;"""" &amp;B376 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D376" s="1" t="str">
         <f aca="false">IF(ISBLANK(A376),"",C376)</f>
         <v/>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C377" s="1" t="str">
-        <f aca="false">A377 &amp;" " &amp;"""" &amp;B377 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D377" s="1" t="str">
         <f aca="false">IF(ISBLANK(A377),"",C377)</f>
         <v/>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C378" s="1" t="str">
-        <f aca="false">A378 &amp;" " &amp;"""" &amp;B378 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D378" s="1" t="str">
         <f aca="false">IF(ISBLANK(A378),"",C378)</f>
         <v/>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C379" s="1" t="str">
-        <f aca="false">A379 &amp;" " &amp;"""" &amp;B379 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D379" s="1" t="str">
         <f aca="false">IF(ISBLANK(A379),"",C379)</f>
         <v/>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C380" s="1" t="str">
-        <f aca="false">A380 &amp;" " &amp;"""" &amp;B380 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D380" s="1" t="str">
         <f aca="false">IF(ISBLANK(A380),"",C380)</f>
         <v/>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C381" s="1" t="str">
-        <f aca="false">A381 &amp;" " &amp;"""" &amp;B381 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D381" s="1" t="str">
         <f aca="false">IF(ISBLANK(A381),"",C381)</f>
         <v/>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C382" s="1" t="str">
-        <f aca="false">A382 &amp;" " &amp;"""" &amp;B382 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D382" s="1" t="str">
         <f aca="false">IF(ISBLANK(A382),"",C382)</f>
         <v/>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C383" s="1" t="str">
-        <f aca="false">A383 &amp;" " &amp;"""" &amp;B383 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D383" s="1" t="str">
         <f aca="false">IF(ISBLANK(A383),"",C383)</f>
         <v/>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C384" s="1" t="str">
-        <f aca="false">A384 &amp;" " &amp;"""" &amp;B384 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D384" s="1" t="str">
         <f aca="false">IF(ISBLANK(A384),"",C384)</f>
         <v/>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C385" s="1" t="str">
-        <f aca="false">A385 &amp;" " &amp;"""" &amp;B385 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D385" s="1" t="str">
         <f aca="false">IF(ISBLANK(A385),"",C385)</f>
         <v/>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C386" s="1" t="str">
-        <f aca="false">A386 &amp;" " &amp;"""" &amp;B386 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D386" s="1" t="str">
         <f aca="false">IF(ISBLANK(A386),"",C386)</f>
         <v/>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C387" s="1" t="str">
-        <f aca="false">A387 &amp;" " &amp;"""" &amp;B387 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D387" s="1" t="str">
         <f aca="false">IF(ISBLANK(A387),"",C387)</f>
         <v/>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C388" s="1" t="str">
-        <f aca="false">A388 &amp;" " &amp;"""" &amp;B388 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D388" s="1" t="str">
         <f aca="false">IF(ISBLANK(A388),"",C388)</f>
         <v/>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C389" s="1" t="str">
-        <f aca="false">A389 &amp;" " &amp;"""" &amp;B389 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D389" s="1" t="str">
         <f aca="false">IF(ISBLANK(A389),"",C389)</f>
         <v/>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C390" s="1" t="str">
-        <f aca="false">A390 &amp;" " &amp;"""" &amp;B390 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D390" s="1" t="str">
         <f aca="false">IF(ISBLANK(A390),"",C390)</f>
         <v/>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C391" s="1" t="str">
-        <f aca="false">A391 &amp;" " &amp;"""" &amp;B391 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D391" s="1" t="str">
         <f aca="false">IF(ISBLANK(A391),"",C391)</f>
         <v/>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C392" s="1" t="str">
-        <f aca="false">A392 &amp;" " &amp;"""" &amp;B392 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D392" s="1" t="str">
         <f aca="false">IF(ISBLANK(A392),"",C392)</f>
         <v/>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C393" s="1" t="str">
-        <f aca="false">A393 &amp;" " &amp;"""" &amp;B393 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D393" s="1" t="str">
         <f aca="false">IF(ISBLANK(A393),"",C393)</f>
         <v/>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="1" t="str">
-        <f aca="false">A394 &amp;" " &amp;"""" &amp;B394 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D394" s="1" t="str">
         <f aca="false">IF(ISBLANK(A394),"",C394)</f>
         <v/>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="1" t="str">
-        <f aca="false">A395 &amp;" " &amp;"""" &amp;B395 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D395" s="1" t="str">
         <f aca="false">IF(ISBLANK(A395),"",C395)</f>
         <v/>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="1" t="str">
-        <f aca="false">A396 &amp;" " &amp;"""" &amp;B396 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D396" s="1" t="str">
         <f aca="false">IF(ISBLANK(A396),"",C396)</f>
         <v/>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="1" t="str">
-        <f aca="false">A397 &amp;" " &amp;"""" &amp;B397 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D397" s="1" t="str">
         <f aca="false">IF(ISBLANK(A397),"",C397)</f>
         <v/>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="1" t="str">
-        <f aca="false">A398 &amp;" " &amp;"""" &amp;B398 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D398" s="1" t="str">
         <f aca="false">IF(ISBLANK(A398),"",C398)</f>
         <v/>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="1" t="str">
-        <f aca="false">A399 &amp;" " &amp;"""" &amp;B399 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D399" s="1" t="str">
         <f aca="false">IF(ISBLANK(A399),"",C399)</f>
         <v/>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="1" t="str">
-        <f aca="false">A400 &amp;" " &amp;"""" &amp;B400 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D400" s="1" t="str">
         <f aca="false">IF(ISBLANK(A400),"",C400)</f>
         <v/>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="1" t="str">
-        <f aca="false">A401 &amp;" " &amp;"""" &amp;B401 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D401" s="1" t="str">
         <f aca="false">IF(ISBLANK(A401),"",C401)</f>
         <v/>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="1" t="str">
-        <f aca="false">A402 &amp;" " &amp;"""" &amp;B402 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D402" s="1" t="str">
         <f aca="false">IF(ISBLANK(A402),"",C402)</f>
         <v/>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="1" t="str">
-        <f aca="false">A403 &amp;" " &amp;"""" &amp;B403 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D403" s="1" t="str">
         <f aca="false">IF(ISBLANK(A403),"",C403)</f>
         <v/>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="1" t="str">
-        <f aca="false">A404 &amp;" " &amp;"""" &amp;B404 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D404" s="1" t="str">
         <f aca="false">IF(ISBLANK(A404),"",C404)</f>
         <v/>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="1" t="str">
-        <f aca="false">A405 &amp;" " &amp;"""" &amp;B405 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D405" s="1" t="str">
         <f aca="false">IF(ISBLANK(A405),"",C405)</f>
         <v/>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="1" t="str">
-        <f aca="false">A406 &amp;" " &amp;"""" &amp;B406 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D406" s="1" t="str">
         <f aca="false">IF(ISBLANK(A406),"",C406)</f>
         <v/>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="1" t="str">
-        <f aca="false">A407 &amp;" " &amp;"""" &amp;B407 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D407" s="1" t="str">
         <f aca="false">IF(ISBLANK(A407),"",C407)</f>
         <v/>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="1" t="str">
-        <f aca="false">A408 &amp;" " &amp;"""" &amp;B408 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D408" s="1" t="str">
         <f aca="false">IF(ISBLANK(A408),"",C408)</f>
         <v/>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="1" t="str">
-        <f aca="false">A409 &amp;" " &amp;"""" &amp;B409 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D409" s="1" t="str">
         <f aca="false">IF(ISBLANK(A409),"",C409)</f>
         <v/>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="1" t="str">
-        <f aca="false">A410 &amp;" " &amp;"""" &amp;B410 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D410" s="1" t="str">
         <f aca="false">IF(ISBLANK(A410),"",C410)</f>
         <v/>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="1" t="str">
-        <f aca="false">A411 &amp;" " &amp;"""" &amp;B411 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D411" s="1" t="str">
         <f aca="false">IF(ISBLANK(A411),"",C411)</f>
         <v/>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="1" t="str">
-        <f aca="false">A412 &amp;" " &amp;"""" &amp;B412 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D412" s="1" t="str">
         <f aca="false">IF(ISBLANK(A412),"",C412)</f>
         <v/>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="1" t="str">
-        <f aca="false">A413 &amp;" " &amp;"""" &amp;B413 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D413" s="1" t="str">
         <f aca="false">IF(ISBLANK(A413),"",C413)</f>
         <v/>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="1" t="str">
-        <f aca="false">A414 &amp;" " &amp;"""" &amp;B414 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D414" s="1" t="str">
         <f aca="false">IF(ISBLANK(A414),"",C414)</f>
         <v/>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="1" t="str">
-        <f aca="false">A415 &amp;" " &amp;"""" &amp;B415 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D415" s="1" t="str">
         <f aca="false">IF(ISBLANK(A415),"",C415)</f>
         <v/>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="1" t="str">
-        <f aca="false">A416 &amp;" " &amp;"""" &amp;B416 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D416" s="1" t="str">
         <f aca="false">IF(ISBLANK(A416),"",C416)</f>
         <v/>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="1" t="str">
-        <f aca="false">A417 &amp;" " &amp;"""" &amp;B417 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D417" s="1" t="str">
         <f aca="false">IF(ISBLANK(A417),"",C417)</f>
         <v/>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="1" t="str">
-        <f aca="false">A418 &amp;" " &amp;"""" &amp;B418 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D418" s="1" t="str">
         <f aca="false">IF(ISBLANK(A418),"",C418)</f>
         <v/>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="1" t="str">
-        <f aca="false">A419 &amp;" " &amp;"""" &amp;B419 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D419" s="1" t="str">
         <f aca="false">IF(ISBLANK(A419),"",C419)</f>
         <v/>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="1" t="str">
-        <f aca="false">A420 &amp;" " &amp;"""" &amp;B420 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D420" s="1" t="str">
         <f aca="false">IF(ISBLANK(A420),"",C420)</f>
         <v/>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="1" t="str">
-        <f aca="false">A421 &amp;" " &amp;"""" &amp;B421 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D421" s="1" t="str">
         <f aca="false">IF(ISBLANK(A421),"",C421)</f>
         <v/>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="1" t="str">
-        <f aca="false">A422 &amp;" " &amp;"""" &amp;B422 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D422" s="1" t="str">
         <f aca="false">IF(ISBLANK(A422),"",C422)</f>
         <v/>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="1" t="str">
-        <f aca="false">A423 &amp;" " &amp;"""" &amp;B423 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D423" s="1" t="str">
         <f aca="false">IF(ISBLANK(A423),"",C423)</f>
         <v/>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="1" t="str">
-        <f aca="false">A424 &amp;" " &amp;"""" &amp;B424 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D424" s="1" t="str">
         <f aca="false">IF(ISBLANK(A424),"",C424)</f>
         <v/>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="1" t="str">
-        <f aca="false">A425 &amp;" " &amp;"""" &amp;B425 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D425" s="1" t="str">
         <f aca="false">IF(ISBLANK(A425),"",C425)</f>
         <v/>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="1" t="str">
-        <f aca="false">A426 &amp;" " &amp;"""" &amp;B426 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D426" s="1" t="str">
         <f aca="false">IF(ISBLANK(A426),"",C426)</f>
         <v/>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="1" t="str">
-        <f aca="false">A427 &amp;" " &amp;"""" &amp;B427 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D427" s="1" t="str">
         <f aca="false">IF(ISBLANK(A427),"",C427)</f>
         <v/>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="1" t="str">
-        <f aca="false">A428 &amp;" " &amp;"""" &amp;B428 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D428" s="1" t="str">
         <f aca="false">IF(ISBLANK(A428),"",C428)</f>
         <v/>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="1" t="str">
-        <f aca="false">A429 &amp;" " &amp;"""" &amp;B429 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D429" s="1" t="str">
         <f aca="false">IF(ISBLANK(A429),"",C429)</f>
         <v/>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="1" t="str">
-        <f aca="false">A430 &amp;" " &amp;"""" &amp;B430 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D430" s="1" t="str">
         <f aca="false">IF(ISBLANK(A430),"",C430)</f>
         <v/>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="1" t="str">
-        <f aca="false">A431 &amp;" " &amp;"""" &amp;B431 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D431" s="1" t="str">
         <f aca="false">IF(ISBLANK(A431),"",C431)</f>
         <v/>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="1" t="str">
-        <f aca="false">A432 &amp;" " &amp;"""" &amp;B432 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D432" s="1" t="str">
         <f aca="false">IF(ISBLANK(A432),"",C432)</f>
         <v/>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="1" t="str">
-        <f aca="false">A433 &amp;" " &amp;"""" &amp;B433 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D433" s="1" t="str">
         <f aca="false">IF(ISBLANK(A433),"",C433)</f>
         <v/>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="1" t="str">
-        <f aca="false">A434 &amp;" " &amp;"""" &amp;B434 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D434" s="1" t="str">
         <f aca="false">IF(ISBLANK(A434),"",C434)</f>
         <v/>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="1" t="str">
-        <f aca="false">A435 &amp;" " &amp;"""" &amp;B435 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D435" s="1" t="str">
         <f aca="false">IF(ISBLANK(A435),"",C435)</f>
         <v/>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="1" t="str">
-        <f aca="false">A436 &amp;" " &amp;"""" &amp;B436 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D436" s="1" t="str">
         <f aca="false">IF(ISBLANK(A436),"",C436)</f>
         <v/>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="1" t="str">
-        <f aca="false">A437 &amp;" " &amp;"""" &amp;B437 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D437" s="1" t="str">
         <f aca="false">IF(ISBLANK(A437),"",C437)</f>
         <v/>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="1" t="str">
-        <f aca="false">A438 &amp;" " &amp;"""" &amp;B438 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D438" s="1" t="str">
         <f aca="false">IF(ISBLANK(A438),"",C438)</f>
         <v/>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="1" t="str">
-        <f aca="false">A439 &amp;" " &amp;"""" &amp;B439 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D439" s="1" t="str">
         <f aca="false">IF(ISBLANK(A439),"",C439)</f>
         <v/>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="1" t="str">
-        <f aca="false">A440 &amp;" " &amp;"""" &amp;B440 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D440" s="1" t="str">
         <f aca="false">IF(ISBLANK(A440),"",C440)</f>
         <v/>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="1" t="str">
-        <f aca="false">A441 &amp;" " &amp;"""" &amp;B441 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D441" s="1" t="str">
         <f aca="false">IF(ISBLANK(A441),"",C441)</f>
         <v/>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="1" t="str">
-        <f aca="false">A442 &amp;" " &amp;"""" &amp;B442 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D442" s="1" t="str">
         <f aca="false">IF(ISBLANK(A442),"",C442)</f>
         <v/>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="1" t="str">
-        <f aca="false">A443 &amp;" " &amp;"""" &amp;B443 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D443" s="1" t="str">
         <f aca="false">IF(ISBLANK(A443),"",C443)</f>
         <v/>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="1" t="str">
-        <f aca="false">A444 &amp;" " &amp;"""" &amp;B444 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D444" s="1" t="str">
         <f aca="false">IF(ISBLANK(A444),"",C444)</f>
         <v/>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="1" t="str">
-        <f aca="false">A445 &amp;" " &amp;"""" &amp;B445 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D445" s="1" t="str">
         <f aca="false">IF(ISBLANK(A445),"",C445)</f>
         <v/>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="1" t="str">
-        <f aca="false">A446 &amp;" " &amp;"""" &amp;B446 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D446" s="1" t="str">
         <f aca="false">IF(ISBLANK(A446),"",C446)</f>
         <v/>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="1" t="str">
-        <f aca="false">A447 &amp;" " &amp;"""" &amp;B447 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D447" s="1" t="str">
         <f aca="false">IF(ISBLANK(A447),"",C447)</f>
         <v/>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="1" t="str">
-        <f aca="false">A448 &amp;" " &amp;"""" &amp;B448 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D448" s="1" t="str">
         <f aca="false">IF(ISBLANK(A448),"",C448)</f>
         <v/>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="1" t="str">
-        <f aca="false">A449 &amp;" " &amp;"""" &amp;B449 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D449" s="1" t="str">
         <f aca="false">IF(ISBLANK(A449),"",C449)</f>
         <v/>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="1" t="str">
-        <f aca="false">A450 &amp;" " &amp;"""" &amp;B450 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D450" s="1" t="str">
         <f aca="false">IF(ISBLANK(A450),"",C450)</f>
         <v/>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="1" t="str">
-        <f aca="false">A451 &amp;" " &amp;"""" &amp;B451 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D451" s="1" t="str">
         <f aca="false">IF(ISBLANK(A451),"",C451)</f>
         <v/>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="1" t="str">
-        <f aca="false">A452 &amp;" " &amp;"""" &amp;B452 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D452" s="1" t="str">
         <f aca="false">IF(ISBLANK(A452),"",C452)</f>
         <v/>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="1" t="str">
-        <f aca="false">A453 &amp;" " &amp;"""" &amp;B453 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D453" s="1" t="str">
         <f aca="false">IF(ISBLANK(A453),"",C453)</f>
         <v/>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="1" t="str">
-        <f aca="false">A454 &amp;" " &amp;"""" &amp;B454 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D454" s="1" t="str">
         <f aca="false">IF(ISBLANK(A454),"",C454)</f>
         <v/>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="1" t="str">
-        <f aca="false">A455 &amp;" " &amp;"""" &amp;B455 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D455" s="1" t="str">
         <f aca="false">IF(ISBLANK(A455),"",C455)</f>
         <v/>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="1" t="str">
-        <f aca="false">A456 &amp;" " &amp;"""" &amp;B456 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D456" s="1" t="str">
         <f aca="false">IF(ISBLANK(A456),"",C456)</f>
         <v/>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="1" t="str">
-        <f aca="false">A457 &amp;" " &amp;"""" &amp;B457 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D457" s="1" t="str">
         <f aca="false">IF(ISBLANK(A457),"",C457)</f>
         <v/>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="1" t="str">
-        <f aca="false">A458 &amp;" " &amp;"""" &amp;B458 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D458" s="1" t="str">
         <f aca="false">IF(ISBLANK(A458),"",C458)</f>
         <v/>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="1" t="str">
-        <f aca="false">A459 &amp;" " &amp;"""" &amp;B459 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D459" s="1" t="str">
         <f aca="false">IF(ISBLANK(A459),"",C459)</f>
         <v/>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="1" t="str">
-        <f aca="false">A460 &amp;" " &amp;"""" &amp;B460 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D460" s="1" t="str">
         <f aca="false">IF(ISBLANK(A460),"",C460)</f>
         <v/>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="1" t="str">
-        <f aca="false">A461 &amp;" " &amp;"""" &amp;B461 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D461" s="1" t="str">
         <f aca="false">IF(ISBLANK(A461),"",C461)</f>
         <v/>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="1" t="str">
-        <f aca="false">A462 &amp;" " &amp;"""" &amp;B462 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D462" s="1" t="str">
         <f aca="false">IF(ISBLANK(A462),"",C462)</f>
         <v/>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="1" t="str">
-        <f aca="false">A463 &amp;" " &amp;"""" &amp;B463 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D463" s="1" t="str">
         <f aca="false">IF(ISBLANK(A463),"",C463)</f>
         <v/>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="1" t="str">
-        <f aca="false">A464 &amp;" " &amp;"""" &amp;B464 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D464" s="1" t="str">
         <f aca="false">IF(ISBLANK(A464),"",C464)</f>
         <v/>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="1" t="str">
-        <f aca="false">A465 &amp;" " &amp;"""" &amp;B465 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D465" s="1" t="str">
         <f aca="false">IF(ISBLANK(A465),"",C465)</f>
         <v/>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="1" t="str">
-        <f aca="false">A466 &amp;" " &amp;"""" &amp;B466 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D466" s="1" t="str">
         <f aca="false">IF(ISBLANK(A466),"",C466)</f>
         <v/>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="1" t="str">
-        <f aca="false">A467 &amp;" " &amp;"""" &amp;B467 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D467" s="1" t="str">
         <f aca="false">IF(ISBLANK(A467),"",C467)</f>
         <v/>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="1" t="str">
-        <f aca="false">A468 &amp;" " &amp;"""" &amp;B468 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D468" s="1" t="str">
         <f aca="false">IF(ISBLANK(A468),"",C468)</f>
         <v/>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="1" t="str">
-        <f aca="false">A469 &amp;" " &amp;"""" &amp;B469 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D469" s="1" t="str">
         <f aca="false">IF(ISBLANK(A469),"",C469)</f>
         <v/>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="1" t="str">
-        <f aca="false">A470 &amp;" " &amp;"""" &amp;B470 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D470" s="1" t="str">
         <f aca="false">IF(ISBLANK(A470),"",C470)</f>
         <v/>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="1" t="str">
-        <f aca="false">A471 &amp;" " &amp;"""" &amp;B471 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D471" s="1" t="str">
         <f aca="false">IF(ISBLANK(A471),"",C471)</f>
         <v/>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="1" t="str">
-        <f aca="false">A472 &amp;" " &amp;"""" &amp;B472 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D472" s="1" t="str">
         <f aca="false">IF(ISBLANK(A472),"",C472)</f>
         <v/>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="1" t="str">
-        <f aca="false">A473 &amp;" " &amp;"""" &amp;B473 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D473" s="1" t="str">
         <f aca="false">IF(ISBLANK(A473),"",C473)</f>
         <v/>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="1" t="str">
-        <f aca="false">A474 &amp;" " &amp;"""" &amp;B474 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D474" s="1" t="str">
         <f aca="false">IF(ISBLANK(A474),"",C474)</f>
         <v/>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="1" t="str">
-        <f aca="false">A475 &amp;" " &amp;"""" &amp;B475 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D475" s="1" t="str">
         <f aca="false">IF(ISBLANK(A475),"",C475)</f>
         <v/>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="1" t="str">
-        <f aca="false">A476 &amp;" " &amp;"""" &amp;B476 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D476" s="1" t="str">
         <f aca="false">IF(ISBLANK(A476),"",C476)</f>
         <v/>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="1" t="str">
-        <f aca="false">A477 &amp;" " &amp;"""" &amp;B477 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D477" s="1" t="str">
         <f aca="false">IF(ISBLANK(A477),"",C477)</f>
         <v/>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="1" t="str">
-        <f aca="false">A478 &amp;" " &amp;"""" &amp;B478 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D478" s="1" t="str">
         <f aca="false">IF(ISBLANK(A478),"",C478)</f>
         <v/>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="1" t="str">
-        <f aca="false">A479 &amp;" " &amp;"""" &amp;B479 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D479" s="1" t="str">
         <f aca="false">IF(ISBLANK(A479),"",C479)</f>
         <v/>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="1" t="str">
-        <f aca="false">A480 &amp;" " &amp;"""" &amp;B480 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D480" s="1" t="str">
         <f aca="false">IF(ISBLANK(A480),"",C480)</f>
         <v/>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="1" t="str">
-        <f aca="false">A481 &amp;" " &amp;"""" &amp;B481 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D481" s="1" t="str">
         <f aca="false">IF(ISBLANK(A481),"",C481)</f>
         <v/>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="1" t="str">
-        <f aca="false">A482 &amp;" " &amp;"""" &amp;B482 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D482" s="1" t="str">
         <f aca="false">IF(ISBLANK(A482),"",C482)</f>
         <v/>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="1" t="str">
-        <f aca="false">A483 &amp;" " &amp;"""" &amp;B483 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D483" s="1" t="str">
         <f aca="false">IF(ISBLANK(A483),"",C483)</f>
         <v/>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="1" t="str">
-        <f aca="false">A484 &amp;" " &amp;"""" &amp;B484 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D484" s="1" t="str">
         <f aca="false">IF(ISBLANK(A484),"",C484)</f>
         <v/>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="1" t="str">
-        <f aca="false">A485 &amp;" " &amp;"""" &amp;B485 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D485" s="1" t="str">
         <f aca="false">IF(ISBLANK(A485),"",C485)</f>
         <v/>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="1" t="str">
-        <f aca="false">A486 &amp;" " &amp;"""" &amp;B486 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D486" s="1" t="str">
         <f aca="false">IF(ISBLANK(A486),"",C486)</f>
         <v/>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="1" t="str">
-        <f aca="false">A487 &amp;" " &amp;"""" &amp;B487 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D487" s="1" t="str">
         <f aca="false">IF(ISBLANK(A487),"",C487)</f>
         <v/>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="1" t="str">
-        <f aca="false">A488 &amp;" " &amp;"""" &amp;B488 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D488" s="1" t="str">
         <f aca="false">IF(ISBLANK(A488),"",C488)</f>
         <v/>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="1" t="str">
-        <f aca="false">A489 &amp;" " &amp;"""" &amp;B489 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D489" s="1" t="str">
         <f aca="false">IF(ISBLANK(A489),"",C489)</f>
         <v/>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="1" t="str">
-        <f aca="false">A490 &amp;" " &amp;"""" &amp;B490 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D490" s="1" t="str">
         <f aca="false">IF(ISBLANK(A490),"",C490)</f>
         <v/>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="1" t="str">
-        <f aca="false">A491 &amp;" " &amp;"""" &amp;B491 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D491" s="1" t="str">
         <f aca="false">IF(ISBLANK(A491),"",C491)</f>
         <v/>
